--- a/capiq_data/in_process_data/IQ126269.xlsx
+++ b/capiq_data/in_process_data/IQ126269.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40645B0-1BC1-4FB5-BF8E-0489ED0A34DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA24BC-DD7F-46E6-93DE-E14935E0AC30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"6dd27330-f919-4f98-ac3e-dfe982e735f8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"003ee988-efdb-42e9-9636-bcfde9c182f8"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>310.10000000000002</v>
+        <v>207.44</v>
       </c>
       <c r="D2">
-        <v>2405.6999999999998</v>
+        <v>1639.8219999999999</v>
       </c>
       <c r="E2">
-        <v>1136.5999999999999</v>
+        <v>940.61099999999999</v>
       </c>
       <c r="F2">
-        <v>1090</v>
+        <v>962.72</v>
       </c>
       <c r="G2">
-        <v>27371.5</v>
+        <v>3191.2350000000001</v>
       </c>
       <c r="H2">
-        <v>32660.3</v>
+        <v>21057.478999999999</v>
       </c>
       <c r="I2">
-        <v>116.2</v>
+        <v>130.93199999999999</v>
       </c>
       <c r="J2">
-        <v>35.1</v>
+        <v>124.631</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.4109999999999996</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25492.9</v>
+        <v>1210.546</v>
       </c>
       <c r="O2">
-        <v>26884.7</v>
+        <v>15984.21</v>
       </c>
       <c r="P2">
-        <v>37.9</v>
+        <v>129.042</v>
       </c>
       <c r="Q2">
-        <v>129</v>
+        <v>-31.158999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>5775.6</v>
+        <v>5073.2690000000002</v>
       </c>
       <c r="U2">
-        <v>1305.7</v>
+        <v>1294.2139999999999</v>
       </c>
       <c r="V2">
-        <v>425</v>
+        <v>209.31</v>
       </c>
       <c r="W2">
-        <v>-167.6</v>
+        <v>-64.843000000000004</v>
       </c>
       <c r="X2">
-        <v>1691.5</v>
+        <v>-25.922000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-749.9</v>
+        <v>-4177.393</v>
       </c>
       <c r="AA2">
-        <v>310.10000000000002</v>
+        <v>207.44</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>423.8</v>
+        <v>288.88</v>
       </c>
       <c r="D3">
-        <v>2737.3</v>
+        <v>1853.7650000000001</v>
       </c>
       <c r="E3">
-        <v>1293.8</v>
+        <v>962.19100000000003</v>
       </c>
       <c r="F3">
-        <v>1281.2</v>
+        <v>1099.4649999999999</v>
       </c>
       <c r="G3">
-        <v>36083.300000000003</v>
+        <v>2941.306</v>
       </c>
       <c r="H3">
-        <v>41596.400000000001</v>
+        <v>19841.183000000001</v>
       </c>
       <c r="I3">
-        <v>131.80000000000001</v>
+        <v>134.07599999999999</v>
       </c>
       <c r="J3">
-        <v>34.6</v>
+        <v>113.136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>33974.1</v>
+        <v>1311.4469999999999</v>
       </c>
       <c r="O3">
-        <v>35401.9</v>
+        <v>15206.734</v>
       </c>
       <c r="P3">
-        <v>37.4</v>
+        <v>113.136</v>
       </c>
       <c r="Q3">
-        <v>295.2</v>
+        <v>-128.47</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6194.5</v>
+        <v>4634.4489999999996</v>
       </c>
       <c r="U3">
-        <v>1600.9</v>
+        <v>1165.7439999999999</v>
       </c>
       <c r="V3">
-        <v>573</v>
+        <v>476.21300000000002</v>
       </c>
       <c r="W3">
-        <v>-177.6</v>
+        <v>-64.424000000000007</v>
       </c>
       <c r="X3">
-        <v>8205.5</v>
+        <v>-751.46100000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-297.10000000000002</v>
+        <v>1082.954</v>
       </c>
       <c r="AA3">
-        <v>423.8</v>
+        <v>288.88</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>241.8</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>2507.1</v>
+        <v>1815.9359999999999</v>
       </c>
       <c r="E4">
-        <v>1364.8</v>
+        <v>976.63800000000003</v>
       </c>
       <c r="F4">
-        <v>1052.4000000000001</v>
+        <v>1007.172</v>
       </c>
       <c r="G4">
-        <v>28583.5</v>
+        <v>3083.46</v>
       </c>
       <c r="H4">
-        <v>34238.300000000003</v>
+        <v>17889.09</v>
       </c>
       <c r="I4">
-        <v>153.30000000000001</v>
+        <v>156.32400000000001</v>
       </c>
       <c r="J4">
-        <v>34.200000000000003</v>
+        <v>110.227</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>26786.799999999999</v>
+        <v>1336.2729999999999</v>
       </c>
       <c r="O4">
-        <v>28227.9</v>
+        <v>13188.093000000001</v>
       </c>
       <c r="P4">
-        <v>34.200000000000003</v>
+        <v>111.44199999999999</v>
       </c>
       <c r="Q4">
-        <v>-211.5</v>
+        <v>109.61199999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>51000</v>
+        <v>41000</v>
       </c>
       <c r="T4">
-        <v>6010.4</v>
+        <v>4700.9970000000003</v>
       </c>
       <c r="U4">
-        <v>1389.4</v>
+        <v>1275.356</v>
       </c>
       <c r="V4">
-        <v>485.5</v>
+        <v>469.70400000000001</v>
       </c>
       <c r="W4">
-        <v>-179.2</v>
+        <v>-64.025999999999996</v>
       </c>
       <c r="X4">
-        <v>-7996.6</v>
+        <v>-199.48400000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-160.4</v>
+        <v>2027.963</v>
       </c>
       <c r="AA4">
-        <v>241.8</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>302.7</v>
+        <v>196.6</v>
       </c>
       <c r="D5">
-        <v>2510.9</v>
+        <v>1607.883</v>
       </c>
       <c r="E5">
-        <v>1236.9000000000001</v>
+        <v>925.95</v>
       </c>
       <c r="F5">
-        <v>1073.3</v>
+        <v>931.53099999999995</v>
       </c>
       <c r="G5">
-        <v>22454</v>
+        <v>2946.4810000000002</v>
       </c>
       <c r="H5">
-        <v>28020.2</v>
+        <v>16664.066999999999</v>
       </c>
       <c r="I5">
-        <v>123</v>
+        <v>156.26</v>
       </c>
       <c r="J5">
-        <v>26</v>
+        <v>106.258</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-0.5</v>
+        <v>-0.56299999999999994</v>
       </c>
       <c r="N5">
-        <v>20511.8</v>
+        <v>1343.5219999999999</v>
       </c>
       <c r="O5">
-        <v>22001</v>
+        <v>12093.887000000001</v>
       </c>
       <c r="P5">
-        <v>36.5</v>
+        <v>106.258</v>
       </c>
       <c r="Q5">
-        <v>-140.5</v>
+        <v>139.751</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>6019.2</v>
+        <v>4570.18</v>
       </c>
       <c r="U5">
-        <v>1248.9000000000001</v>
+        <v>1415.107</v>
       </c>
       <c r="V5">
-        <v>316.3</v>
+        <v>380.84300000000002</v>
       </c>
       <c r="W5">
-        <v>-177.7</v>
+        <v>-63.970999999999997</v>
       </c>
       <c r="X5">
-        <v>-6315.4</v>
+        <v>-454.863</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-250.8</v>
+        <v>1529.652</v>
       </c>
       <c r="AA5">
-        <v>302.7</v>
+        <v>196.6</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>375</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="D6">
-        <v>2570.6999999999998</v>
+        <v>1681.028</v>
       </c>
       <c r="E6">
-        <v>1353.9</v>
+        <v>929.37</v>
       </c>
       <c r="F6">
-        <v>1119.2</v>
+        <v>989.05799999999999</v>
       </c>
       <c r="G6">
-        <v>26727.1</v>
+        <v>2939.165</v>
       </c>
       <c r="H6">
-        <v>32484.400000000001</v>
+        <v>17621.281999999999</v>
       </c>
       <c r="I6">
-        <v>137.30000000000001</v>
+        <v>150.11500000000001</v>
       </c>
       <c r="J6">
-        <v>25.5</v>
+        <v>94.894999999999996</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24797.5</v>
+        <v>1265.5329999999999</v>
       </c>
       <c r="O6">
-        <v>26302</v>
+        <v>12754.213</v>
       </c>
       <c r="P6">
-        <v>36</v>
+        <v>94.894999999999996</v>
       </c>
       <c r="Q6">
-        <v>82.4</v>
+        <v>-88.14</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6182.4</v>
+        <v>4867.0690000000004</v>
       </c>
       <c r="U6">
-        <v>1331.3</v>
+        <v>1326.9670000000001</v>
       </c>
       <c r="V6">
-        <v>431.6</v>
+        <v>331.45400000000001</v>
       </c>
       <c r="W6">
-        <v>-176.2</v>
+        <v>-70.563000000000002</v>
       </c>
       <c r="X6">
-        <v>3975.6</v>
+        <v>15.351000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>49.4</v>
+        <v>-1110.673</v>
       </c>
       <c r="AA6">
-        <v>375</v>
+        <v>264.60000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>452.4</v>
+        <v>352.26</v>
       </c>
       <c r="D7">
-        <v>2910.9</v>
+        <v>1870.0360000000001</v>
       </c>
       <c r="E7">
-        <v>1372.7</v>
+        <v>1053.2660000000001</v>
       </c>
       <c r="F7">
-        <v>1357.2</v>
+        <v>1097.5440000000001</v>
       </c>
       <c r="G7">
-        <v>33553.5</v>
+        <v>2989.4609999999998</v>
       </c>
       <c r="H7">
-        <v>39376.1</v>
+        <v>19228.232</v>
       </c>
       <c r="I7">
-        <v>137.69999999999999</v>
+        <v>155.10499999999999</v>
       </c>
       <c r="J7">
-        <v>17.3</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>31423.9</v>
+        <v>1367.885</v>
       </c>
       <c r="O7">
-        <v>32919.5</v>
+        <v>14231.251</v>
       </c>
       <c r="P7">
-        <v>35.5</v>
+        <v>91</v>
       </c>
       <c r="Q7">
-        <v>333.8</v>
+        <v>-123.001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>6456.6</v>
+        <v>4996.9809999999998</v>
       </c>
       <c r="U7">
-        <v>1665.1</v>
+        <v>1203.9659999999999</v>
       </c>
       <c r="V7">
-        <v>663.2</v>
+        <v>472.63099999999997</v>
       </c>
       <c r="W7">
-        <v>-192.5</v>
+        <v>-71.320999999999998</v>
       </c>
       <c r="X7">
-        <v>6243.5</v>
+        <v>-188.50899999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-565</v>
+        <v>-1771.4290000000001</v>
       </c>
       <c r="AA7">
-        <v>452.4</v>
+        <v>352.26</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>258.39999999999998</v>
+        <v>287.31</v>
       </c>
       <c r="D8">
-        <v>2623.6</v>
+        <v>1845.316</v>
       </c>
       <c r="E8">
-        <v>1391.7</v>
+        <v>1045.17</v>
       </c>
       <c r="F8">
-        <v>1108.5</v>
+        <v>1015.485</v>
       </c>
       <c r="G8">
-        <v>25272.6</v>
+        <v>2817.2570000000001</v>
       </c>
       <c r="H8">
-        <v>30817.4</v>
+        <v>18276.522000000001</v>
       </c>
       <c r="I8">
-        <v>167.4</v>
+        <v>148.69399999999999</v>
       </c>
       <c r="J8">
-        <v>16.8</v>
+        <v>90.647999999999996</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,164 +1390,164 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23252.7</v>
+        <v>1411.1020000000001</v>
       </c>
       <c r="O8">
-        <v>24703.4</v>
+        <v>13162.316999999999</v>
       </c>
       <c r="P8">
-        <v>16.8</v>
+        <v>90.772999999999996</v>
       </c>
       <c r="Q8">
-        <v>-117</v>
+        <v>-405.15600000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>57000</v>
+        <v>40000</v>
       </c>
       <c r="T8">
-        <v>6114</v>
+        <v>5114.2049999999999</v>
       </c>
       <c r="U8">
-        <v>1548.1</v>
+        <v>798.81</v>
       </c>
       <c r="V8">
-        <v>499.1</v>
+        <v>346.77600000000001</v>
       </c>
       <c r="W8">
-        <v>-193.3</v>
+        <v>-71.004999999999995</v>
       </c>
       <c r="X8">
-        <v>-8857.6</v>
+        <v>-299.73599999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-384.9</v>
+        <v>922.15800000000002</v>
       </c>
       <c r="AA8">
-        <v>258.39999999999998</v>
+        <v>287.31</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>305.3</v>
+        <v>210.4</v>
       </c>
       <c r="D9">
-        <v>2637.5</v>
+        <v>1646.6849999999999</v>
       </c>
       <c r="E9">
-        <v>1463.4</v>
+        <v>971.37300000000005</v>
       </c>
       <c r="F9">
-        <v>1113.7</v>
+        <v>938.21699999999998</v>
       </c>
       <c r="G9">
-        <v>23972.6</v>
+        <v>2501.7829999999999</v>
       </c>
       <c r="H9">
-        <v>30144.1</v>
+        <v>15695.995000000001</v>
       </c>
       <c r="I9">
-        <v>138.80000000000001</v>
+        <v>134.726</v>
       </c>
       <c r="J9">
-        <v>16.3</v>
+        <v>83.78</v>
       </c>
       <c r="K9">
-        <v>442.7</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-8.1999999999999993</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="N9">
-        <v>22351.1</v>
+        <v>1376.5550000000001</v>
       </c>
       <c r="O9">
-        <v>23851.4</v>
+        <v>10947.069</v>
       </c>
       <c r="P9">
-        <v>459</v>
+        <v>83.78</v>
       </c>
       <c r="Q9">
-        <v>-430.7</v>
+        <v>-253.03100000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6292.7</v>
+        <v>4748.9260000000004</v>
       </c>
       <c r="U9">
-        <v>1114.0999999999999</v>
+        <v>545.779</v>
       </c>
       <c r="V9">
-        <v>-65.099999999999994</v>
+        <v>236.78800000000001</v>
       </c>
       <c r="W9">
-        <v>-192.1</v>
+        <v>-69.361999999999995</v>
       </c>
       <c r="X9">
-        <v>-1093.3</v>
+        <v>-676.58399999999995</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-163</v>
+        <v>2559.7489999999998</v>
       </c>
       <c r="AA9">
-        <v>305.3</v>
+        <v>210.4</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>390.8</v>
+        <v>261.69</v>
       </c>
       <c r="D10">
-        <v>2738</v>
+        <v>1682.9949999999999</v>
       </c>
       <c r="E10">
-        <v>1604.1</v>
+        <v>988.86500000000001</v>
       </c>
       <c r="F10">
-        <v>1181.8</v>
+        <v>980.279</v>
       </c>
       <c r="G10">
-        <v>27552.400000000001</v>
+        <v>2893.3539999999998</v>
       </c>
       <c r="H10">
-        <v>33330</v>
+        <v>19002.942999999999</v>
       </c>
       <c r="I10">
-        <v>141.4</v>
+        <v>126.505</v>
       </c>
       <c r="J10">
-        <v>15.8</v>
+        <v>82.445999999999998</v>
       </c>
       <c r="K10">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25438.5</v>
+        <v>1336.88</v>
       </c>
       <c r="O10">
-        <v>26934.7</v>
+        <v>14023.834000000001</v>
       </c>
       <c r="P10">
-        <v>29.3</v>
+        <v>82.445999999999998</v>
       </c>
       <c r="Q10">
-        <v>273.5</v>
+        <v>425.70299999999997</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>6395.3</v>
+        <v>4979.1090000000004</v>
       </c>
       <c r="U10">
-        <v>1390.8</v>
+        <v>971.48199999999997</v>
       </c>
       <c r="V10">
-        <v>448.5</v>
+        <v>379.62400000000002</v>
       </c>
       <c r="W10">
-        <v>-192.2</v>
+        <v>-72.073999999999998</v>
       </c>
       <c r="X10">
-        <v>2680.3</v>
+        <v>-120.333</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-160.19999999999999</v>
+        <v>-2780.462</v>
       </c>
       <c r="AA10">
-        <v>390.8</v>
+        <v>261.69</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>482.7</v>
+        <v>329.39</v>
       </c>
       <c r="D11">
-        <v>3109.3</v>
+        <v>1905.778</v>
       </c>
       <c r="E11">
-        <v>1723.6</v>
+        <v>1022.367</v>
       </c>
       <c r="F11">
-        <v>1429.7</v>
+        <v>1109.1980000000001</v>
       </c>
       <c r="G11">
-        <v>34433.199999999997</v>
+        <v>3493.5659999999998</v>
       </c>
       <c r="H11">
-        <v>40166.300000000003</v>
+        <v>20329.399000000001</v>
       </c>
       <c r="I11">
-        <v>149.69999999999999</v>
+        <v>148.66300000000001</v>
       </c>
       <c r="J11">
-        <v>15.3</v>
+        <v>81.93</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>32118.5</v>
+        <v>1510.04</v>
       </c>
       <c r="O11">
-        <v>33605.199999999997</v>
+        <v>15101.543</v>
       </c>
       <c r="P11">
-        <v>15.3</v>
+        <v>81.93</v>
       </c>
       <c r="Q11">
-        <v>256.8</v>
+        <v>217.178</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6561.1</v>
+        <v>5227.8559999999998</v>
       </c>
       <c r="U11">
-        <v>1647.7</v>
+        <v>1188.6600000000001</v>
       </c>
       <c r="V11">
-        <v>618.29999999999995</v>
+        <v>549.98</v>
       </c>
       <c r="W11">
-        <v>-210.4</v>
+        <v>-71.792000000000002</v>
       </c>
       <c r="X11">
-        <v>6426.7</v>
+        <v>-162.15600000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-652.9</v>
+        <v>-905.68399999999997</v>
       </c>
       <c r="AA11">
-        <v>482.7</v>
+        <v>329.39</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>227</v>
+        <v>216.67</v>
       </c>
       <c r="D12">
-        <v>2802.8</v>
+        <v>1911.559</v>
       </c>
       <c r="E12">
-        <v>1595.3</v>
+        <v>1005.833</v>
       </c>
       <c r="F12">
-        <v>1176.5999999999999</v>
+        <v>1022.604</v>
       </c>
       <c r="G12">
-        <v>26214.5</v>
+        <v>3675.5010000000002</v>
       </c>
       <c r="H12">
-        <v>32268.1</v>
+        <v>19833.670999999998</v>
       </c>
       <c r="I12">
-        <v>156.5</v>
+        <v>173.988</v>
       </c>
       <c r="J12">
-        <v>14.7</v>
+        <v>84.674000000000007</v>
       </c>
       <c r="K12">
-        <v>245.9</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,161 +1722,161 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24732.799999999999</v>
+        <v>1998.7829999999999</v>
       </c>
       <c r="O12">
-        <v>26078.2</v>
+        <v>14462.198</v>
       </c>
       <c r="P12">
-        <v>260.60000000000002</v>
+        <v>85.498999999999995</v>
       </c>
       <c r="Q12">
-        <v>51.4</v>
+        <v>221.55799999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>60000</v>
+        <v>41000</v>
       </c>
       <c r="T12">
-        <v>6189.9</v>
+        <v>5371.473</v>
       </c>
       <c r="U12">
-        <v>1698.4</v>
+        <v>1410.2180000000001</v>
       </c>
       <c r="V12">
-        <v>575.5</v>
+        <v>398.697</v>
       </c>
       <c r="W12">
-        <v>-210.8</v>
+        <v>-71.376999999999995</v>
       </c>
       <c r="X12">
-        <v>-7862.7</v>
+        <v>-171.68100000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-287.89999999999998</v>
+        <v>3190.4290000000001</v>
       </c>
       <c r="AA12">
-        <v>227</v>
+        <v>216.67</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>328.6</v>
+        <v>194.85</v>
       </c>
       <c r="D13">
-        <v>2362</v>
+        <v>1720.277</v>
       </c>
       <c r="E13">
-        <v>1585.8</v>
+        <v>931.79300000000001</v>
       </c>
       <c r="F13">
-        <v>970</v>
+        <v>926.03599999999994</v>
       </c>
       <c r="G13">
-        <v>21035.8</v>
+        <v>3325.8670000000002</v>
       </c>
       <c r="H13">
-        <v>29481.3</v>
+        <v>18714.385999999999</v>
       </c>
       <c r="I13">
-        <v>148.9</v>
+        <v>149.35400000000001</v>
       </c>
       <c r="J13">
-        <v>14.2</v>
+        <v>84.712999999999994</v>
       </c>
       <c r="K13">
-        <v>2817.9</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.6</v>
+        <v>-0.441</v>
       </c>
       <c r="N13">
-        <v>21899.4</v>
+        <v>1707.5340000000001</v>
       </c>
       <c r="O13">
-        <v>23288.5</v>
+        <v>13364.753000000001</v>
       </c>
       <c r="P13">
-        <v>2832.1</v>
+        <v>84.712999999999994</v>
       </c>
       <c r="Q13">
-        <v>-550.1</v>
+        <v>-58.506999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6192.8</v>
+        <v>5349.6329999999998</v>
       </c>
       <c r="U13">
-        <v>1149</v>
+        <v>1351.711</v>
       </c>
       <c r="V13">
-        <v>81.3</v>
+        <v>164.32</v>
       </c>
       <c r="W13">
-        <v>-210.6</v>
+        <v>-71.308000000000007</v>
       </c>
       <c r="X13">
-        <v>-3137.5</v>
+        <v>-97.2</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>202.5</v>
+        <v>784.74</v>
       </c>
       <c r="AA13">
-        <v>328.6</v>
+        <v>194.85</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>377</v>
+        <v>228.58</v>
       </c>
       <c r="D14">
-        <v>2493.6999999999998</v>
+        <v>1827.4</v>
       </c>
       <c r="E14">
-        <v>1730.4</v>
+        <v>982.726</v>
       </c>
       <c r="F14">
-        <v>1065.4000000000001</v>
+        <v>1017.1</v>
       </c>
       <c r="G14">
-        <v>32301.1</v>
+        <v>2946.252</v>
       </c>
       <c r="H14">
-        <v>38321.800000000003</v>
+        <v>24700.123</v>
       </c>
       <c r="I14">
-        <v>140.6</v>
+        <v>137.80199999999999</v>
       </c>
       <c r="J14">
-        <v>12.6</v>
+        <v>84.584999999999994</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>30645</v>
+        <v>1665.296</v>
       </c>
       <c r="O14">
-        <v>32063.3</v>
+        <v>19325.71</v>
       </c>
       <c r="P14">
-        <v>12.6</v>
+        <v>84.584999999999994</v>
       </c>
       <c r="Q14">
-        <v>118.1</v>
+        <v>-516.08100000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>6258.5</v>
+        <v>5374.4129999999996</v>
       </c>
       <c r="U14">
-        <v>1266.4000000000001</v>
+        <v>835.63</v>
       </c>
       <c r="V14">
-        <v>391.7</v>
+        <v>392.22199999999998</v>
       </c>
       <c r="W14">
-        <v>-210.2</v>
+        <v>-71.697999999999993</v>
       </c>
       <c r="X14">
-        <v>8454.6</v>
+        <v>-241.917</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-388.3</v>
+        <v>-6583.96</v>
       </c>
       <c r="AA14">
-        <v>377</v>
+        <v>228.58</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>521.5</v>
+        <v>300.25</v>
       </c>
       <c r="D15">
-        <v>2825.1</v>
+        <v>2121.4349999999999</v>
       </c>
       <c r="E15">
-        <v>1835.2</v>
+        <v>1086.229</v>
       </c>
       <c r="F15">
-        <v>1289.7</v>
+        <v>1177.0619999999999</v>
       </c>
       <c r="G15">
-        <v>30532.6</v>
+        <v>2836.5709999999999</v>
       </c>
       <c r="H15">
-        <v>36596.5</v>
+        <v>25425.481</v>
       </c>
       <c r="I15">
-        <v>145.6</v>
+        <v>165.001</v>
       </c>
       <c r="J15">
-        <v>12.1</v>
+        <v>82.049000000000007</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>28578.2</v>
+        <v>1827.0809999999999</v>
       </c>
       <c r="O15">
-        <v>29980.400000000001</v>
+        <v>19800.782999999999</v>
       </c>
       <c r="P15">
-        <v>12.1</v>
+        <v>82.049000000000007</v>
       </c>
       <c r="Q15">
-        <v>403.9</v>
+        <v>20.297999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6616.1</v>
+        <v>5624.6980000000003</v>
       </c>
       <c r="U15">
-        <v>1671</v>
+        <v>855.928</v>
       </c>
       <c r="V15">
-        <v>743.9</v>
+        <v>575.42399999999998</v>
       </c>
       <c r="W15">
-        <v>-231.2</v>
+        <v>-82.453999999999994</v>
       </c>
       <c r="X15">
-        <v>-2381.3000000000002</v>
+        <v>-206.21600000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-426.6</v>
+        <v>-284.25299999999999</v>
       </c>
       <c r="AA15">
-        <v>521.6</v>
+        <v>300.25</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>211.92</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2085.788</v>
       </c>
       <c r="E16">
-        <v>1498.8</v>
+        <v>1058</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1109.3019999999999</v>
       </c>
       <c r="G16">
-        <v>27493</v>
+        <v>2761.6</v>
       </c>
       <c r="H16">
-        <v>32059.8</v>
+        <v>21120.6</v>
       </c>
       <c r="I16">
-        <v>152.1</v>
+        <v>175.2</v>
       </c>
       <c r="J16">
-        <v>11.5</v>
+        <v>76.2</v>
       </c>
       <c r="K16">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,161 +2054,161 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24167.599999999999</v>
+        <v>1768.4</v>
       </c>
       <c r="O16">
-        <v>25389.599999999999</v>
+        <v>15702.9</v>
       </c>
       <c r="P16">
-        <v>2184.5</v>
+        <v>76.7</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-142.91</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>61000</v>
+        <v>42000</v>
       </c>
       <c r="T16">
-        <v>6670.2</v>
+        <v>5417.7</v>
       </c>
       <c r="U16">
-        <v>1400.2</v>
+        <v>713</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>253.434</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-83.14</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-224.96700000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>3999.373</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>211.92</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>295.2</v>
+        <v>208.2</v>
       </c>
       <c r="D17">
-        <v>2566.1</v>
+        <v>1833.4</v>
       </c>
       <c r="E17">
-        <v>1390.3</v>
+        <v>986.29200000000003</v>
       </c>
       <c r="F17">
-        <v>1059.3</v>
+        <v>984.8</v>
       </c>
       <c r="G17">
-        <v>25793.4</v>
+        <v>3028.5329999999999</v>
       </c>
       <c r="H17">
-        <v>30208.1</v>
+        <v>23787.477999999999</v>
       </c>
       <c r="I17">
-        <v>146.9</v>
+        <v>128.51400000000001</v>
       </c>
       <c r="J17">
-        <v>10.9</v>
+        <v>76.507999999999996</v>
       </c>
       <c r="K17">
-        <v>1937</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="N17">
-        <v>23159.3</v>
+        <v>1659.933</v>
       </c>
       <c r="O17">
-        <v>24380.799999999999</v>
+        <v>18373.944</v>
       </c>
       <c r="P17">
-        <v>1947.9</v>
+        <v>76.507999999999996</v>
       </c>
       <c r="Q17">
-        <v>192.1</v>
+        <v>390.5</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5827.3</v>
+        <v>5413.5339999999997</v>
       </c>
       <c r="U17">
-        <v>2175.6999999999998</v>
+        <v>1103.5250000000001</v>
       </c>
       <c r="V17">
-        <v>378.2</v>
+        <v>262.5</v>
       </c>
       <c r="W17">
-        <v>-229.8</v>
+        <v>-82.5</v>
       </c>
       <c r="X17">
-        <v>-418</v>
+        <v>-275</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-299</v>
+        <v>-2233.1999999999998</v>
       </c>
       <c r="AA17">
-        <v>295.2</v>
+        <v>208.2</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>331.5</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2653.6</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1595.6</v>
+        <v>2055.473</v>
       </c>
       <c r="F18">
-        <v>1122.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>39116</v>
+        <v>4193.8729999999996</v>
       </c>
       <c r="H18">
-        <v>43503.1</v>
+        <v>28189.379000000001</v>
       </c>
       <c r="I18">
-        <v>136.4</v>
+        <v>146.07300000000001</v>
       </c>
       <c r="J18">
-        <v>10.3</v>
+        <v>75.926000000000002</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>36770.199999999997</v>
+        <v>2600.64</v>
       </c>
       <c r="O18">
-        <v>38010.9</v>
+        <v>22532.856</v>
       </c>
       <c r="P18">
-        <v>10.3</v>
+        <v>75.926000000000002</v>
       </c>
       <c r="Q18">
-        <v>-324.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5492.2</v>
+        <v>5656.5230000000001</v>
       </c>
       <c r="U18">
-        <v>1850.8</v>
+        <v>1131.117</v>
       </c>
       <c r="V18">
-        <v>228.9</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-231.5</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>13120.6</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-179.7</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>331.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>489.6</v>
+        <v>338.4</v>
       </c>
       <c r="D19">
-        <v>3024.3</v>
+        <v>2215</v>
       </c>
       <c r="E19">
-        <v>1580.7</v>
+        <v>2367.556</v>
       </c>
       <c r="F19">
-        <v>1392.2</v>
+        <v>1199.5</v>
       </c>
       <c r="G19">
-        <v>32792.800000000003</v>
+        <v>4489.34</v>
       </c>
       <c r="H19">
-        <v>37107.300000000003</v>
+        <v>32772.726999999999</v>
       </c>
       <c r="I19">
-        <v>130.80000000000001</v>
+        <v>177.523</v>
       </c>
       <c r="J19">
-        <v>9.6999999999999993</v>
+        <v>75.936999999999998</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>30714.7</v>
+        <v>2754.277</v>
       </c>
       <c r="O19">
-        <v>31929.200000000001</v>
+        <v>27003.084999999999</v>
       </c>
       <c r="P19">
-        <v>9.6999999999999993</v>
+        <v>75.936999999999998</v>
       </c>
       <c r="Q19">
-        <v>-42.2</v>
+        <v>-62</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5178.1000000000004</v>
+        <v>5769.6419999999998</v>
       </c>
       <c r="U19">
-        <v>1808.6</v>
+        <v>1069.191</v>
       </c>
       <c r="V19">
-        <v>857.1</v>
+        <v>353.9</v>
       </c>
       <c r="W19">
-        <v>-234.9</v>
+        <v>-90.5</v>
       </c>
       <c r="X19">
-        <v>-6752.8</v>
+        <v>-248</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-270</v>
+        <v>-4456.2</v>
       </c>
       <c r="AA19">
-        <v>489.6</v>
+        <v>338.4</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>336.2</v>
+        <v>258.7</v>
       </c>
       <c r="D20">
-        <v>2694.5</v>
+        <v>2167.1</v>
       </c>
       <c r="E20">
-        <v>1546.9</v>
+        <v>2086.9</v>
       </c>
       <c r="F20">
-        <v>1144.3</v>
+        <v>1104.3</v>
       </c>
       <c r="G20">
-        <v>28809.200000000001</v>
+        <v>4869.8999999999996</v>
       </c>
       <c r="H20">
-        <v>33110.5</v>
+        <v>27615.4</v>
       </c>
       <c r="I20">
-        <v>194.5</v>
+        <v>192.7</v>
       </c>
       <c r="J20">
-        <v>9.1999999999999993</v>
+        <v>75.7</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>27113.7</v>
+        <v>2861.8</v>
       </c>
       <c r="O20">
-        <v>28302</v>
+        <v>21831.5</v>
       </c>
       <c r="P20">
-        <v>9.1999999999999993</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="Q20">
-        <v>-169.3</v>
+        <v>-93.8</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>55000</v>
+        <v>44000</v>
       </c>
       <c r="T20">
-        <v>4808.5</v>
+        <v>5783.9</v>
       </c>
       <c r="U20">
-        <v>1639.3</v>
+        <v>853.6</v>
       </c>
       <c r="V20">
-        <v>441.4</v>
+        <v>416.9</v>
       </c>
       <c r="W20">
-        <v>-231.4</v>
+        <v>-90.3</v>
       </c>
       <c r="X20">
-        <v>-4333.1000000000004</v>
+        <v>-209.3</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-457.9</v>
+        <v>5145.5</v>
       </c>
       <c r="AA20">
-        <v>336.2</v>
+        <v>258.7</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>336.6</v>
+        <v>220</v>
       </c>
       <c r="D21">
-        <v>2714</v>
+        <v>1906.7</v>
       </c>
       <c r="E21">
-        <v>1565.2</v>
+        <v>2070.1999999999998</v>
       </c>
       <c r="F21">
-        <v>1118.0999999999999</v>
+        <v>852.9</v>
       </c>
       <c r="G21">
-        <v>30176.1</v>
+        <v>4233.1000000000004</v>
       </c>
       <c r="H21">
-        <v>34380.300000000003</v>
+        <v>24826.400000000001</v>
       </c>
       <c r="I21">
-        <v>146.5</v>
+        <v>198.3</v>
       </c>
       <c r="J21">
-        <v>1995.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="N21">
-        <v>26587.3</v>
+        <v>2532.1999999999998</v>
       </c>
       <c r="O21">
-        <v>29750.1</v>
+        <v>19097.7</v>
       </c>
       <c r="P21">
-        <v>1995.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="Q21">
-        <v>1545.4</v>
+        <v>83.3</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4630.2</v>
+        <v>5728.7</v>
       </c>
       <c r="U21">
-        <v>3184.7</v>
+        <v>1058.7</v>
       </c>
       <c r="V21">
-        <v>109.1</v>
+        <v>401.8</v>
       </c>
       <c r="W21">
-        <v>-229</v>
+        <v>-91</v>
       </c>
       <c r="X21">
-        <v>1128.2</v>
+        <v>-272.39999999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>395.5</v>
+        <v>2482.5</v>
       </c>
       <c r="AA21">
-        <v>336.6</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>341.4</v>
+        <v>259.7</v>
       </c>
       <c r="D22">
-        <v>2807</v>
+        <v>1288.4000000000001</v>
       </c>
       <c r="E22">
-        <v>1634.2</v>
+        <v>2270.6</v>
       </c>
       <c r="F22">
-        <v>1178</v>
+        <v>740.8</v>
       </c>
       <c r="G22">
-        <v>35659.199999999997</v>
+        <v>4431.2</v>
       </c>
       <c r="H22">
-        <v>39899.5</v>
+        <v>29643.200000000001</v>
       </c>
       <c r="I22">
-        <v>138.69999999999999</v>
+        <v>183</v>
       </c>
       <c r="J22">
-        <v>1994.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32468.1</v>
+        <v>2796.5</v>
       </c>
       <c r="O22">
-        <v>35693.300000000003</v>
+        <v>23787.3</v>
       </c>
       <c r="P22">
-        <v>1994.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="Q22">
-        <v>-389.8</v>
+        <v>3.9</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>4206.2</v>
+        <v>5855.9</v>
       </c>
       <c r="U22">
-        <v>2794.9</v>
+        <v>1062.2</v>
       </c>
       <c r="V22">
-        <v>406.3</v>
+        <v>498.4</v>
       </c>
       <c r="W22">
-        <v>-229.8</v>
+        <v>-90.1</v>
       </c>
       <c r="X22">
-        <v>5398.6</v>
+        <v>-96.3</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-170.8</v>
+        <v>-4425</v>
       </c>
       <c r="AA22">
-        <v>341.4</v>
+        <v>259.7</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>532.5</v>
+        <v>370.6</v>
       </c>
       <c r="D23">
-        <v>3248.6</v>
+        <v>1927</v>
       </c>
       <c r="E23">
-        <v>2074.4</v>
+        <v>2203.6999999999998</v>
       </c>
       <c r="F23">
-        <v>1489.7</v>
+        <v>1024.7</v>
       </c>
       <c r="G23">
-        <v>46819</v>
+        <v>5024.6000000000004</v>
       </c>
       <c r="H23">
-        <v>51125.599999999999</v>
+        <v>32643.200000000001</v>
       </c>
       <c r="I23">
-        <v>158.4</v>
+        <v>174.5</v>
       </c>
       <c r="J23">
-        <v>2007.7</v>
+        <v>74.3</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>43250.400000000001</v>
+        <v>2879.4</v>
       </c>
       <c r="O23">
-        <v>46622.400000000001</v>
+        <v>26599.4</v>
       </c>
       <c r="P23">
-        <v>2007.7</v>
+        <v>74.3</v>
       </c>
       <c r="Q23">
-        <v>146.5</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4503.2</v>
+        <v>6043.8</v>
       </c>
       <c r="U23">
-        <v>2941.4</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="V23">
-        <v>719</v>
+        <v>573.9</v>
       </c>
       <c r="W23">
-        <v>-242.4</v>
+        <v>-105.8</v>
       </c>
       <c r="X23">
-        <v>9805.7999999999993</v>
+        <v>-232.6</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-404.4</v>
+        <v>-2684.5</v>
       </c>
       <c r="AA23">
-        <v>532.5</v>
+        <v>370.6</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>282</v>
+        <v>703.7</v>
       </c>
       <c r="D24">
-        <v>2898.3</v>
+        <v>1713.5</v>
       </c>
       <c r="E24">
-        <v>1742.8</v>
+        <v>752.2</v>
       </c>
       <c r="F24">
-        <v>1253.5</v>
+        <v>774.4</v>
       </c>
       <c r="G24">
-        <v>39500.400000000001</v>
+        <v>5482.8</v>
       </c>
       <c r="H24">
-        <v>43670</v>
+        <v>27490.1</v>
       </c>
       <c r="I24">
-        <v>152.30000000000001</v>
+        <v>125.2</v>
       </c>
       <c r="J24">
-        <v>2007.7</v>
+        <v>74.3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>35847.4</v>
+        <v>2674.2</v>
       </c>
       <c r="O24">
-        <v>39188.400000000001</v>
+        <v>21478.5</v>
       </c>
       <c r="P24">
-        <v>2007.7</v>
+        <v>74.5</v>
       </c>
       <c r="Q24">
-        <v>249.7</v>
+        <v>563.5</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>57000</v>
+        <v>46000</v>
       </c>
       <c r="T24">
-        <v>4481.6000000000004</v>
+        <v>6011.6</v>
       </c>
       <c r="U24">
-        <v>3191.1</v>
+        <v>1800.1</v>
       </c>
       <c r="V24">
-        <v>662.9</v>
+        <v>338.4</v>
       </c>
       <c r="W24">
-        <v>-242.4</v>
+        <v>-107</v>
       </c>
       <c r="X24">
-        <v>-7579.9</v>
+        <v>-747.5</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-481.2</v>
+        <v>3735.5</v>
       </c>
       <c r="AA24">
-        <v>282</v>
+        <v>703.7</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>368.7</v>
+        <v>257.5</v>
       </c>
       <c r="D25">
-        <v>2916.9</v>
+        <v>1754.8</v>
       </c>
       <c r="E25">
-        <v>1620.6</v>
+        <v>2209.6</v>
       </c>
       <c r="F25">
-        <v>1230.5</v>
+        <v>837.4</v>
       </c>
       <c r="G25">
-        <v>30124.2</v>
+        <v>4591.3</v>
       </c>
       <c r="H25">
-        <v>34337.4</v>
+        <v>26209.3</v>
       </c>
       <c r="I25">
-        <v>117.8</v>
+        <v>166.6</v>
       </c>
       <c r="J25">
-        <v>2007.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,84 +2798,84 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N25">
-        <v>26719.3</v>
+        <v>2587.1</v>
       </c>
       <c r="O25">
-        <v>30087.3</v>
+        <v>20361.400000000001</v>
       </c>
       <c r="P25">
-        <v>2007.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="Q25">
-        <v>-9597</v>
+        <v>-499.4</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4250.1000000000004</v>
+        <v>5847.9</v>
       </c>
       <c r="U25">
-        <v>2776.6</v>
+        <v>1401.2</v>
       </c>
       <c r="V25">
-        <v>329.8</v>
+        <v>167.3</v>
       </c>
       <c r="W25">
-        <v>-241.8</v>
+        <v>-105</v>
       </c>
       <c r="X25">
-        <v>-9513.6</v>
+        <v>-636.29999999999995</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-271</v>
+        <v>1236.2</v>
       </c>
       <c r="AA25">
-        <v>368.7</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>510.9</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="D26">
-        <v>2987.3</v>
+        <v>1874.3</v>
       </c>
       <c r="E26">
-        <v>1839.5</v>
+        <v>2204.6999999999998</v>
       </c>
       <c r="F26">
-        <v>1274.4000000000001</v>
+        <v>933.2</v>
       </c>
       <c r="G26">
-        <v>35808.1</v>
+        <v>4292.1000000000004</v>
       </c>
       <c r="H26">
-        <v>39999.4</v>
+        <v>31612.2</v>
       </c>
       <c r="I26">
-        <v>137.4</v>
+        <v>171.8</v>
       </c>
       <c r="J26">
-        <v>2002.5</v>
+        <v>73.8</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>32956.300000000003</v>
+        <v>2551.5</v>
       </c>
       <c r="O26">
-        <v>36184.300000000003</v>
+        <v>25705.7</v>
       </c>
       <c r="P26">
-        <v>2002.5</v>
+        <v>87.1</v>
       </c>
       <c r="Q26">
-        <v>5859.9</v>
+        <v>-106.5</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>3815.1</v>
+        <v>5906.5</v>
       </c>
       <c r="U26">
-        <v>2705.2</v>
+        <v>1294.7</v>
       </c>
       <c r="V26">
-        <v>511.3</v>
+        <v>330.1</v>
       </c>
       <c r="W26">
-        <v>-240.5</v>
+        <v>-102.9</v>
       </c>
       <c r="X26">
-        <v>5484.3</v>
+        <v>-265.89999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-210.5</v>
+        <v>-1051.4000000000001</v>
       </c>
       <c r="AA26">
-        <v>510.9</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>588</v>
+        <v>388.9</v>
       </c>
       <c r="D27">
-        <v>3410.8</v>
+        <v>2171</v>
       </c>
       <c r="E27">
-        <v>1811.5</v>
+        <v>915</v>
       </c>
       <c r="F27">
-        <v>1556</v>
+        <v>1157.4000000000001</v>
       </c>
       <c r="G27">
-        <v>39514.400000000001</v>
+        <v>4056.4</v>
       </c>
       <c r="H27">
-        <v>43855.9</v>
+        <v>32922.9</v>
       </c>
       <c r="I27">
-        <v>126.5</v>
+        <v>105.9</v>
       </c>
       <c r="J27">
-        <v>2002.5</v>
+        <v>43.6</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>36418.5</v>
+        <v>1765.3</v>
       </c>
       <c r="O27">
-        <v>39752.800000000003</v>
+        <v>26934.2</v>
       </c>
       <c r="P27">
-        <v>2010.3</v>
+        <v>43.6</v>
       </c>
       <c r="Q27">
-        <v>3383.5</v>
+        <v>1178.7</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4103.1000000000004</v>
+        <v>5988.7</v>
       </c>
       <c r="U27">
-        <v>2995.5</v>
+        <v>2473.5</v>
       </c>
       <c r="V27">
-        <v>827.6</v>
+        <v>614.6</v>
       </c>
       <c r="W27">
-        <v>-257.10000000000002</v>
+        <v>-126.1</v>
       </c>
       <c r="X27">
-        <v>3042.8</v>
+        <v>6244.7</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-283.89999999999998</v>
+        <v>19.7</v>
       </c>
       <c r="AA27">
-        <v>587.9</v>
+        <v>388.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>265.8</v>
+        <v>194.7</v>
       </c>
       <c r="D28">
-        <v>3064.9</v>
+        <v>1999.9</v>
       </c>
       <c r="E28">
-        <v>1703.6</v>
+        <v>1041.9000000000001</v>
       </c>
       <c r="F28">
-        <v>1275.3</v>
+        <v>993.6</v>
       </c>
       <c r="G28">
-        <v>32658.7</v>
+        <v>21853.4</v>
       </c>
       <c r="H28">
-        <v>37180</v>
+        <v>26648.9</v>
       </c>
       <c r="I28">
-        <v>149.69999999999999</v>
+        <v>125.9</v>
       </c>
       <c r="J28">
-        <v>2002.4</v>
+        <v>43.5</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,161 +3050,161 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>29815.9</v>
+        <v>20463.8</v>
       </c>
       <c r="O28">
-        <v>33203</v>
+        <v>21501</v>
       </c>
       <c r="P28">
-        <v>2002.4</v>
+        <v>43.7</v>
       </c>
       <c r="Q28">
-        <v>-6923.4</v>
+        <v>-712.7</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>58000</v>
+        <v>46000</v>
       </c>
       <c r="T28">
-        <v>3977</v>
+        <v>5147.8999999999996</v>
       </c>
       <c r="U28">
-        <v>2780.4</v>
+        <v>1746.1</v>
       </c>
       <c r="V28">
-        <v>457.2</v>
+        <v>186</v>
       </c>
       <c r="W28">
-        <v>-255.8</v>
+        <v>-127.3</v>
       </c>
       <c r="X28">
-        <v>-7295.2</v>
+        <v>-6519.2</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-23.8</v>
+        <v>225</v>
       </c>
       <c r="AA28">
-        <v>265.8</v>
+        <v>194.7</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>412.6</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="D29">
-        <v>3077.2</v>
+        <v>1992</v>
       </c>
       <c r="E29">
-        <v>1788.7</v>
+        <v>957.8</v>
       </c>
       <c r="F29">
-        <v>1288.3</v>
+        <v>959.3</v>
       </c>
       <c r="G29">
-        <v>31002.6</v>
+        <v>3078.3</v>
       </c>
       <c r="H29">
-        <v>35661.1</v>
+        <v>25703.3</v>
       </c>
       <c r="I29">
-        <v>112.6</v>
+        <v>91.4</v>
       </c>
       <c r="J29">
-        <v>2002.1</v>
+        <v>43.5</v>
       </c>
       <c r="K29">
-        <v>129.4</v>
+        <v>345.9</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-0.9</v>
+        <v>-0.2</v>
       </c>
       <c r="N29">
-        <v>28286.6</v>
+        <v>1958.1</v>
       </c>
       <c r="O29">
-        <v>31707.7</v>
+        <v>20705.400000000001</v>
       </c>
       <c r="P29">
-        <v>2131.5</v>
+        <v>389.4</v>
       </c>
       <c r="Q29">
-        <v>-2098.4</v>
+        <v>-332.2</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3953.4</v>
+        <v>4997.8999999999996</v>
       </c>
       <c r="U29">
-        <v>2363.6</v>
+        <v>1428.6</v>
       </c>
       <c r="V29">
-        <v>244.7</v>
+        <v>276.5</v>
       </c>
       <c r="W29">
-        <v>-253.7</v>
+        <v>-127.3</v>
       </c>
       <c r="X29">
-        <v>-2064.6999999999998</v>
+        <v>-1582.8</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-149.6</v>
+        <v>-100.2</v>
       </c>
       <c r="AA29">
-        <v>412.6</v>
+        <v>297.39999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>670.4</v>
+        <v>291.10000000000002</v>
       </c>
       <c r="D30">
-        <v>3238.3</v>
+        <v>2150.1</v>
       </c>
       <c r="E30">
-        <v>2045.5</v>
+        <v>1069.8</v>
       </c>
       <c r="F30">
-        <v>1369.7</v>
+        <v>1041.5</v>
       </c>
       <c r="G30">
-        <v>39350</v>
+        <v>3091.2</v>
       </c>
       <c r="H30">
-        <v>44545.5</v>
+        <v>27545.7</v>
       </c>
       <c r="I30">
-        <v>136.80000000000001</v>
+        <v>96</v>
       </c>
       <c r="J30">
-        <v>2002.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>37250.9</v>
+        <v>1752.9</v>
       </c>
       <c r="O30">
-        <v>40614.300000000003</v>
+        <v>22368.1</v>
       </c>
       <c r="P30">
-        <v>2002.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="Q30">
-        <v>7776.6</v>
+        <v>-108.1</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3931.2</v>
+        <v>5177.6000000000004</v>
       </c>
       <c r="U30">
-        <v>1773.4</v>
+        <v>1320.5</v>
       </c>
       <c r="V30">
-        <v>430.4</v>
+        <v>320.8</v>
       </c>
       <c r="W30">
-        <v>-253</v>
+        <v>-123</v>
       </c>
       <c r="X30">
-        <v>8345</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-438.6</v>
+        <v>-803.5</v>
       </c>
       <c r="AA30">
-        <v>670.4</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>661</v>
+        <v>413.7</v>
       </c>
       <c r="D31">
-        <v>3696</v>
+        <v>2427.1999999999998</v>
       </c>
       <c r="E31">
-        <v>2043.4</v>
+        <v>1179.0999999999999</v>
       </c>
       <c r="F31">
-        <v>1686.9</v>
+        <v>1261.7</v>
       </c>
       <c r="G31">
-        <v>38714</v>
+        <v>27820</v>
       </c>
       <c r="H31">
-        <v>44065.5</v>
+        <v>32775.5</v>
       </c>
       <c r="I31">
-        <v>105.7</v>
+        <v>99.4</v>
       </c>
       <c r="J31">
-        <v>2002.4</v>
+        <v>52.5</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>36741.199999999997</v>
+        <v>25862.799999999999</v>
       </c>
       <c r="O31">
-        <v>40036.300000000003</v>
+        <v>27276.7</v>
       </c>
       <c r="P31">
-        <v>2002.4</v>
+        <v>55.3</v>
       </c>
       <c r="Q31">
-        <v>-414.9</v>
+        <v>324.2</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4029.2</v>
+        <v>5498.8</v>
       </c>
       <c r="U31">
-        <v>2293.6</v>
+        <v>1644.7</v>
       </c>
       <c r="V31">
-        <v>1134.9000000000001</v>
+        <v>701.3</v>
       </c>
       <c r="W31">
-        <v>-278.39999999999998</v>
+        <v>-151.1</v>
       </c>
       <c r="X31">
-        <v>-922.1</v>
+        <v>4313.3</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-402</v>
+        <v>-424.2</v>
       </c>
       <c r="AA31">
-        <v>661</v>
+        <v>413.6</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>140.9</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>3316.2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1984.2</v>
+        <v>1034.5999999999999</v>
       </c>
       <c r="F32">
-        <v>1446.3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>31823.3</v>
+        <v>18808.900000000001</v>
       </c>
       <c r="H32">
-        <v>38849.1</v>
+        <v>23734.400000000001</v>
       </c>
       <c r="I32">
-        <v>135.4</v>
+        <v>126.9</v>
       </c>
       <c r="J32">
-        <v>2002.4</v>
+        <v>52.1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,164 +3382,164 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>30412.7</v>
+        <v>17341.599999999999</v>
       </c>
       <c r="O32">
-        <v>34113.199999999997</v>
+        <v>18647.2</v>
       </c>
       <c r="P32">
-        <v>2002.4</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="Q32">
-        <v>-6902.8</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>57000</v>
+        <v>47000</v>
       </c>
       <c r="T32">
-        <v>4735.8999999999996</v>
+        <v>5087.2</v>
       </c>
       <c r="U32">
-        <v>2170</v>
+        <v>917.5</v>
       </c>
       <c r="V32">
-        <v>705.2</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>-278.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-7014.1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-431.6</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>140.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>505.4</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="D33">
-        <v>3310.3</v>
+        <v>2181.5</v>
       </c>
       <c r="E33">
-        <v>2216.4</v>
+        <v>993.6</v>
       </c>
       <c r="F33">
-        <v>1455.3</v>
+        <v>1004.2</v>
       </c>
       <c r="G33">
-        <v>29955.9</v>
+        <v>19349.2</v>
       </c>
       <c r="H33">
-        <v>37416.699999999997</v>
+        <v>24176.9</v>
       </c>
       <c r="I33">
-        <v>131.80000000000001</v>
+        <v>103.8</v>
       </c>
       <c r="J33">
-        <v>2002.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K33">
-        <v>453</v>
+        <v>1362.9</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
       <c r="M33">
-        <v>-0.5</v>
+        <v>-12.9</v>
       </c>
       <c r="N33">
-        <v>29037.3</v>
+        <v>18080.400000000001</v>
       </c>
       <c r="O33">
-        <v>32737.9</v>
+        <v>19315.599999999999</v>
       </c>
       <c r="P33">
-        <v>2455.4</v>
+        <v>1402.1</v>
       </c>
       <c r="Q33">
-        <v>-2133.8000000000002</v>
+        <v>478.9</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4678.8</v>
+        <v>4861.3</v>
       </c>
       <c r="U33">
-        <v>1490.3</v>
+        <v>1396.4</v>
       </c>
       <c r="V33">
-        <v>149.19999999999999</v>
+        <v>398.2</v>
       </c>
       <c r="W33">
-        <v>-302.60000000000002</v>
+        <v>-148.9</v>
       </c>
       <c r="X33">
-        <v>-1817.7</v>
+        <v>614.1</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-216</v>
+        <v>-472.9</v>
       </c>
       <c r="AA33">
-        <v>505.4</v>
+        <v>276.89999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>558.20000000000005</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="D34">
-        <v>3492.4</v>
+        <v>2187.3000000000002</v>
       </c>
       <c r="E34">
-        <v>2638.1</v>
+        <v>1166.3</v>
       </c>
       <c r="F34">
-        <v>1563.9</v>
+        <v>1066.3</v>
       </c>
       <c r="G34">
-        <v>31682.6</v>
+        <v>28657.4</v>
       </c>
       <c r="H34">
-        <v>38806.300000000003</v>
+        <v>33361</v>
       </c>
       <c r="I34">
-        <v>151.30000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="J34">
-        <v>2002.3</v>
+        <v>51.2</v>
       </c>
       <c r="K34">
-        <v>1206</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>30296.9</v>
+        <v>27227.599999999999</v>
       </c>
       <c r="O34">
-        <v>34042.400000000001</v>
+        <v>28523.3</v>
       </c>
       <c r="P34">
-        <v>3208.3</v>
+        <v>51.2</v>
       </c>
       <c r="Q34">
-        <v>1075.7</v>
+        <v>-91.5</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>4763.8999999999996</v>
+        <v>4837.7</v>
       </c>
       <c r="U34">
-        <v>2785.6</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="V34">
-        <v>782.3</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="W34">
-        <v>-302.39999999999998</v>
+        <v>-148.30000000000001</v>
       </c>
       <c r="X34">
-        <v>329.4</v>
+        <v>8883.4</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>78.599999999999994</v>
+        <v>22.6</v>
       </c>
       <c r="AA34">
-        <v>558.20000000000005</v>
+        <v>300.60000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>753.8</v>
+        <v>402.7</v>
       </c>
       <c r="D35">
-        <v>3828.2</v>
+        <v>2368.6999999999998</v>
       </c>
       <c r="E35">
-        <v>2485.1999999999998</v>
+        <v>1043.8</v>
       </c>
       <c r="F35">
-        <v>1812.8</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="G35">
-        <v>40924</v>
+        <v>24482.2</v>
       </c>
       <c r="H35">
-        <v>48196.3</v>
+        <v>29174.400000000001</v>
       </c>
       <c r="I35">
-        <v>156.30000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="J35">
-        <v>2002.3</v>
+        <v>43.1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>39166</v>
+        <v>22864.7</v>
       </c>
       <c r="O35">
-        <v>42950.1</v>
+        <v>24181.9</v>
       </c>
       <c r="P35">
-        <v>2002.3</v>
+        <v>43.1</v>
       </c>
       <c r="Q35">
-        <v>8727.5</v>
+        <v>58.5</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5246.2</v>
+        <v>4992.5</v>
       </c>
       <c r="U35">
-        <v>1826.2</v>
+        <v>1363.4</v>
       </c>
       <c r="V35">
-        <v>1024.5</v>
+        <v>453.5</v>
       </c>
       <c r="W35">
-        <v>-344.6</v>
+        <v>-166.7</v>
       </c>
       <c r="X35">
-        <v>8433.7000000000007</v>
+        <v>-4474.6000000000004</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-497.8</v>
+        <v>446</v>
       </c>
       <c r="AA35">
-        <v>753.7</v>
+        <v>402.5</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>475.4</v>
+        <v>352.6</v>
       </c>
       <c r="D36">
-        <v>3479.3</v>
+        <v>2100.9</v>
       </c>
       <c r="E36">
-        <v>2439.3000000000002</v>
+        <v>1050.7</v>
       </c>
       <c r="F36">
-        <v>1561.1</v>
+        <v>968.7</v>
       </c>
       <c r="G36">
-        <v>34342.300000000003</v>
+        <v>20705.5</v>
       </c>
       <c r="H36">
-        <v>41887.699999999997</v>
+        <v>25351.7</v>
       </c>
       <c r="I36">
-        <v>125.5</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="J36">
-        <v>2002.2</v>
+        <v>42.7</v>
       </c>
       <c r="K36">
-        <v>262</v>
+        <v>730</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,161 +3714,161 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>32627.7</v>
+        <v>18763.400000000001</v>
       </c>
       <c r="O36">
-        <v>36487.800000000003</v>
+        <v>20029.099999999999</v>
       </c>
       <c r="P36">
-        <v>2264.1999999999998</v>
+        <v>772.7</v>
       </c>
       <c r="Q36">
-        <v>-7415.3</v>
+        <v>901.9</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>58000</v>
+        <v>45000</v>
       </c>
       <c r="T36">
-        <v>5399.9</v>
+        <v>5322.6</v>
       </c>
       <c r="U36">
-        <v>1949.2</v>
+        <v>2265.3000000000002</v>
       </c>
       <c r="V36">
-        <v>732.3</v>
+        <v>427.5</v>
       </c>
       <c r="W36">
-        <v>-343.4</v>
+        <v>-165.5</v>
       </c>
       <c r="X36">
-        <v>-7153.1</v>
+        <v>-4554.5</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-878.4</v>
+        <v>588.20000000000005</v>
       </c>
       <c r="AA36">
-        <v>475.4</v>
+        <v>352.6</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>582.4</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="D37">
-        <v>3495.7</v>
+        <v>2096.1</v>
       </c>
       <c r="E37">
-        <v>2490.4</v>
+        <v>994.3</v>
       </c>
       <c r="F37">
-        <v>1539.8</v>
+        <v>966.9</v>
       </c>
       <c r="G37">
-        <v>29508.5</v>
+        <v>19718.400000000001</v>
       </c>
       <c r="H37">
-        <v>37714.699999999997</v>
+        <v>24436.1</v>
       </c>
       <c r="I37">
-        <v>108.8</v>
+        <v>94.6</v>
       </c>
       <c r="J37">
-        <v>1003.4</v>
+        <v>42.2</v>
       </c>
       <c r="K37">
-        <v>3965.3</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-730</v>
       </c>
       <c r="M37">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="N37">
-        <v>29200.9</v>
+        <v>17444</v>
       </c>
       <c r="O37">
-        <v>32354</v>
+        <v>18782.099999999999</v>
       </c>
       <c r="P37">
-        <v>6428.7</v>
+        <v>42.2</v>
       </c>
       <c r="Q37">
-        <v>-4524</v>
+        <v>-682.5</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5360.7</v>
+        <v>5654</v>
       </c>
       <c r="U37">
-        <v>1403.9</v>
+        <v>1582.8</v>
       </c>
       <c r="V37">
-        <v>432.8</v>
+        <v>243.7</v>
       </c>
       <c r="W37">
-        <v>-343.3</v>
+        <v>-165.6</v>
       </c>
       <c r="X37">
-        <v>-5045.8999999999996</v>
+        <v>-1306.4000000000001</v>
       </c>
       <c r="Y37">
-        <v>355.4</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>243.8</v>
+        <v>510.3</v>
       </c>
       <c r="AA37">
-        <v>582.4</v>
+        <v>284.10000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>651.6</v>
+        <v>315.8</v>
       </c>
       <c r="D38">
-        <v>3669.5</v>
+        <v>2198</v>
       </c>
       <c r="E38">
-        <v>2587.9</v>
+        <v>1089.4000000000001</v>
       </c>
       <c r="F38">
-        <v>1664.8</v>
+        <v>1030.5999999999999</v>
       </c>
       <c r="G38">
-        <v>41365</v>
+        <v>24926.400000000001</v>
       </c>
       <c r="H38">
-        <v>49059.4</v>
+        <v>29598.9</v>
       </c>
       <c r="I38">
-        <v>132.9</v>
+        <v>101.4</v>
       </c>
       <c r="J38">
-        <v>1003</v>
+        <v>41.8</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>40522.400000000001</v>
+        <v>22560.5</v>
       </c>
       <c r="O38">
-        <v>43695</v>
+        <v>23851</v>
       </c>
       <c r="P38">
-        <v>2469.3000000000002</v>
+        <v>44.6</v>
       </c>
       <c r="Q38">
-        <v>11042.9</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>5364.4</v>
+        <v>5747.9</v>
       </c>
       <c r="U38">
-        <v>1500.4</v>
+        <v>1741.1</v>
       </c>
       <c r="V38">
-        <v>698.1</v>
+        <v>429.2</v>
       </c>
       <c r="W38">
-        <v>-342.7</v>
+        <v>-165.2</v>
       </c>
       <c r="X38">
-        <v>10571</v>
+        <v>4931.8</v>
       </c>
       <c r="Y38">
-        <v>360.2</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-123.9</v>
+        <v>-299</v>
       </c>
       <c r="AA38">
-        <v>651.6</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>820.9</v>
+        <v>403.6</v>
       </c>
       <c r="D39">
-        <v>4047.8</v>
+        <v>2443.1999999999998</v>
       </c>
       <c r="E39">
-        <v>2620.6</v>
+        <v>1131</v>
       </c>
       <c r="F39">
-        <v>1901.6</v>
+        <v>1172.9000000000001</v>
       </c>
       <c r="G39">
-        <v>35708.699999999997</v>
+        <v>30315</v>
       </c>
       <c r="H39">
-        <v>43383.4</v>
+        <v>34986.199999999997</v>
       </c>
       <c r="I39">
-        <v>115.5</v>
+        <v>96.2</v>
       </c>
       <c r="J39">
-        <v>1002.8</v>
+        <v>41.3</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>34672.800000000003</v>
+        <v>27742</v>
       </c>
       <c r="O39">
-        <v>37892.699999999997</v>
+        <v>29047.9</v>
       </c>
       <c r="P39">
-        <v>2464</v>
+        <v>44.1</v>
       </c>
       <c r="Q39">
-        <v>-4796.1000000000004</v>
+        <v>223.9</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5490.7</v>
+        <v>5938.3</v>
       </c>
       <c r="U39">
-        <v>1705</v>
+        <v>1965</v>
       </c>
       <c r="V39">
-        <v>1118.7</v>
+        <v>613.70000000000005</v>
       </c>
       <c r="W39">
-        <v>-392.9</v>
+        <v>-167.3</v>
       </c>
       <c r="X39">
-        <v>-6489.1</v>
+        <v>4867</v>
       </c>
       <c r="Y39">
-        <v>361.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>735.4</v>
+        <v>-303.7</v>
       </c>
       <c r="AA39">
-        <v>820.9</v>
+        <v>403.6</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>411.6</v>
+        <v>207.9</v>
       </c>
       <c r="D40">
-        <v>3376.8</v>
+        <v>2190.3000000000002</v>
       </c>
       <c r="E40">
-        <v>2441.3000000000002</v>
+        <v>1127.7</v>
       </c>
       <c r="F40">
-        <v>1405.4</v>
+        <v>966</v>
       </c>
       <c r="G40">
-        <v>31564.1</v>
+        <v>22316.7</v>
       </c>
       <c r="H40">
-        <v>39165.5</v>
+        <v>26862.2</v>
       </c>
       <c r="I40">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="J40">
-        <v>1002.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="K40">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>30126.6</v>
+        <v>20052.2</v>
       </c>
       <c r="O40">
-        <v>33413.300000000003</v>
+        <v>21383.3</v>
       </c>
       <c r="P40">
-        <v>2458.1</v>
+        <v>42.6</v>
       </c>
       <c r="Q40">
-        <v>-1465.4</v>
+        <v>-321.7</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>58000</v>
+        <v>47000</v>
       </c>
       <c r="T40">
-        <v>5752.2</v>
+        <v>5478.9</v>
       </c>
       <c r="U40">
-        <v>1908.5</v>
+        <v>1643.3</v>
       </c>
       <c r="V40">
-        <v>776.6</v>
+        <v>395.5</v>
       </c>
       <c r="W40">
-        <v>-391.6</v>
+        <v>-175.3</v>
       </c>
       <c r="X40">
-        <v>-4926.6000000000004</v>
+        <v>-8403.4</v>
       </c>
       <c r="Y40">
-        <v>344.4</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>2888</v>
+        <v>-347.4</v>
       </c>
       <c r="AA40">
-        <v>411.6</v>
+        <v>207.9</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>602.1</v>
+        <v>278.5</v>
       </c>
       <c r="D41">
-        <v>3470.7</v>
+        <v>2229.4</v>
       </c>
       <c r="E41">
-        <v>2489.1</v>
+        <v>1161.5</v>
       </c>
       <c r="F41">
-        <v>1539.9</v>
+        <v>977.8</v>
       </c>
       <c r="G41">
-        <v>34815.4</v>
+        <v>25679.200000000001</v>
       </c>
       <c r="H41">
-        <v>42390.1</v>
+        <v>30878.9</v>
       </c>
       <c r="I41">
-        <v>111.2</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="J41">
-        <v>1993.9</v>
+        <v>35.6</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>-13.6</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-1000.6</v>
+        <v>-4.3</v>
       </c>
       <c r="N41">
-        <v>32329.599999999999</v>
+        <v>23677.3</v>
       </c>
       <c r="O41">
-        <v>36581.199999999997</v>
+        <v>25122.2</v>
       </c>
       <c r="P41">
-        <v>2420.8000000000002</v>
+        <v>35.6</v>
       </c>
       <c r="Q41">
-        <v>3308.1</v>
+        <v>-466.6</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5808.9</v>
+        <v>5756.7</v>
       </c>
       <c r="U41">
-        <v>1613.1</v>
+        <v>1176.7</v>
       </c>
       <c r="V41">
-        <v>481.9</v>
+        <v>222.3</v>
       </c>
       <c r="W41">
-        <v>-391</v>
+        <v>-168</v>
       </c>
       <c r="X41">
-        <v>2524.1</v>
+        <v>3438.8</v>
       </c>
       <c r="Y41">
-        <v>330.4</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>383.9</v>
+        <v>-258.39999999999998</v>
       </c>
       <c r="AA41">
-        <v>602.1</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>310.10000000000002</v>
+      </c>
+      <c r="D42">
+        <v>2405.6999999999998</v>
+      </c>
+      <c r="E42">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="F42">
+        <v>1090</v>
+      </c>
+      <c r="G42">
+        <v>27371.5</v>
+      </c>
+      <c r="H42">
+        <v>32660.3</v>
+      </c>
+      <c r="I42">
+        <v>116.2</v>
+      </c>
+      <c r="J42">
+        <v>35.1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>25492.9</v>
+      </c>
+      <c r="O42">
+        <v>26884.7</v>
+      </c>
+      <c r="P42">
+        <v>37.9</v>
+      </c>
+      <c r="Q42">
+        <v>129</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>5775.6</v>
+      </c>
+      <c r="U42">
+        <v>1305.7</v>
+      </c>
+      <c r="V42">
+        <v>425</v>
+      </c>
+      <c r="W42">
+        <v>-167.6</v>
+      </c>
+      <c r="X42">
+        <v>1691.5</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-749.9</v>
+      </c>
+      <c r="AA42">
+        <v>310.10000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>423.8</v>
+      </c>
+      <c r="D43">
+        <v>2737.3</v>
+      </c>
+      <c r="E43">
+        <v>1293.8</v>
+      </c>
+      <c r="F43">
+        <v>1281.2</v>
+      </c>
+      <c r="G43">
+        <v>36083.300000000003</v>
+      </c>
+      <c r="H43">
+        <v>41596.400000000001</v>
+      </c>
+      <c r="I43">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="J43">
+        <v>34.6</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>33974.1</v>
+      </c>
+      <c r="O43">
+        <v>35401.9</v>
+      </c>
+      <c r="P43">
+        <v>37.4</v>
+      </c>
+      <c r="Q43">
+        <v>295.2</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>6194.5</v>
+      </c>
+      <c r="U43">
+        <v>1600.9</v>
+      </c>
+      <c r="V43">
+        <v>573</v>
+      </c>
+      <c r="W43">
+        <v>-177.6</v>
+      </c>
+      <c r="X43">
+        <v>8205.5</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-297.10000000000002</v>
+      </c>
+      <c r="AA43">
+        <v>423.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>241.8</v>
+      </c>
+      <c r="D44">
+        <v>2507.1</v>
+      </c>
+      <c r="E44">
+        <v>1364.8</v>
+      </c>
+      <c r="F44">
+        <v>1052.4000000000001</v>
+      </c>
+      <c r="G44">
+        <v>28583.5</v>
+      </c>
+      <c r="H44">
+        <v>34238.300000000003</v>
+      </c>
+      <c r="I44">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="J44">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>26786.799999999999</v>
+      </c>
+      <c r="O44">
+        <v>28227.9</v>
+      </c>
+      <c r="P44">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Q44">
+        <v>-211.5</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>51000</v>
+      </c>
+      <c r="T44">
+        <v>6010.4</v>
+      </c>
+      <c r="U44">
+        <v>1389.4</v>
+      </c>
+      <c r="V44">
+        <v>485.5</v>
+      </c>
+      <c r="W44">
+        <v>-179.2</v>
+      </c>
+      <c r="X44">
+        <v>-7996.6</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-160.4</v>
+      </c>
+      <c r="AA44">
+        <v>241.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>302.7</v>
+      </c>
+      <c r="D45">
+        <v>2510.9</v>
+      </c>
+      <c r="E45">
+        <v>1236.9000000000001</v>
+      </c>
+      <c r="F45">
+        <v>1073.3</v>
+      </c>
+      <c r="G45">
+        <v>22454</v>
+      </c>
+      <c r="H45">
+        <v>28020.2</v>
+      </c>
+      <c r="I45">
+        <v>123</v>
+      </c>
+      <c r="J45">
+        <v>26</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-0.5</v>
+      </c>
+      <c r="N45">
+        <v>20511.8</v>
+      </c>
+      <c r="O45">
+        <v>22001</v>
+      </c>
+      <c r="P45">
+        <v>36.5</v>
+      </c>
+      <c r="Q45">
+        <v>-140.5</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>6019.2</v>
+      </c>
+      <c r="U45">
+        <v>1248.9000000000001</v>
+      </c>
+      <c r="V45">
+        <v>316.3</v>
+      </c>
+      <c r="W45">
+        <v>-177.7</v>
+      </c>
+      <c r="X45">
+        <v>-6315.4</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-250.8</v>
+      </c>
+      <c r="AA45">
+        <v>302.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>375</v>
+      </c>
+      <c r="D46">
+        <v>2570.6999999999998</v>
+      </c>
+      <c r="E46">
+        <v>1353.9</v>
+      </c>
+      <c r="F46">
+        <v>1119.2</v>
+      </c>
+      <c r="G46">
+        <v>26727.1</v>
+      </c>
+      <c r="H46">
+        <v>32484.400000000001</v>
+      </c>
+      <c r="I46">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="J46">
+        <v>25.5</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>24797.5</v>
+      </c>
+      <c r="O46">
+        <v>26302</v>
+      </c>
+      <c r="P46">
+        <v>36</v>
+      </c>
+      <c r="Q46">
+        <v>82.4</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>6182.4</v>
+      </c>
+      <c r="U46">
+        <v>1331.3</v>
+      </c>
+      <c r="V46">
+        <v>431.6</v>
+      </c>
+      <c r="W46">
+        <v>-176.2</v>
+      </c>
+      <c r="X46">
+        <v>3975.6</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>49.4</v>
+      </c>
+      <c r="AA46">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>452.4</v>
+      </c>
+      <c r="D47">
+        <v>2910.9</v>
+      </c>
+      <c r="E47">
+        <v>1372.7</v>
+      </c>
+      <c r="F47">
+        <v>1357.2</v>
+      </c>
+      <c r="G47">
+        <v>33553.5</v>
+      </c>
+      <c r="H47">
+        <v>39376.1</v>
+      </c>
+      <c r="I47">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="J47">
+        <v>17.3</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>31423.9</v>
+      </c>
+      <c r="O47">
+        <v>32919.5</v>
+      </c>
+      <c r="P47">
+        <v>35.5</v>
+      </c>
+      <c r="Q47">
+        <v>333.8</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6456.6</v>
+      </c>
+      <c r="U47">
+        <v>1665.1</v>
+      </c>
+      <c r="V47">
+        <v>663.2</v>
+      </c>
+      <c r="W47">
+        <v>-192.5</v>
+      </c>
+      <c r="X47">
+        <v>6243.5</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-565</v>
+      </c>
+      <c r="AA47">
+        <v>452.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="D48">
+        <v>2623.6</v>
+      </c>
+      <c r="E48">
+        <v>1391.7</v>
+      </c>
+      <c r="F48">
+        <v>1108.5</v>
+      </c>
+      <c r="G48">
+        <v>25272.6</v>
+      </c>
+      <c r="H48">
+        <v>30817.4</v>
+      </c>
+      <c r="I48">
+        <v>167.4</v>
+      </c>
+      <c r="J48">
+        <v>16.8</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>23252.7</v>
+      </c>
+      <c r="O48">
+        <v>24703.4</v>
+      </c>
+      <c r="P48">
+        <v>16.8</v>
+      </c>
+      <c r="Q48">
+        <v>-117</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>57000</v>
+      </c>
+      <c r="T48">
+        <v>6114</v>
+      </c>
+      <c r="U48">
+        <v>1548.1</v>
+      </c>
+      <c r="V48">
+        <v>499.1</v>
+      </c>
+      <c r="W48">
+        <v>-193.3</v>
+      </c>
+      <c r="X48">
+        <v>-8857.6</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-384.9</v>
+      </c>
+      <c r="AA48">
+        <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>305.3</v>
+      </c>
+      <c r="D49">
+        <v>2637.5</v>
+      </c>
+      <c r="E49">
+        <v>1463.4</v>
+      </c>
+      <c r="F49">
+        <v>1113.7</v>
+      </c>
+      <c r="G49">
+        <v>23972.6</v>
+      </c>
+      <c r="H49">
+        <v>30144.1</v>
+      </c>
+      <c r="I49">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="J49">
+        <v>16.3</v>
+      </c>
+      <c r="K49">
+        <v>442.7</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="N49">
+        <v>22351.1</v>
+      </c>
+      <c r="O49">
+        <v>23851.4</v>
+      </c>
+      <c r="P49">
+        <v>459</v>
+      </c>
+      <c r="Q49">
+        <v>-430.7</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>6292.7</v>
+      </c>
+      <c r="U49">
+        <v>1114.0999999999999</v>
+      </c>
+      <c r="V49">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="W49">
+        <v>-192.1</v>
+      </c>
+      <c r="X49">
+        <v>-1093.3</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-163</v>
+      </c>
+      <c r="AA49">
+        <v>305.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>390.8</v>
+      </c>
+      <c r="D50">
+        <v>2738</v>
+      </c>
+      <c r="E50">
+        <v>1604.1</v>
+      </c>
+      <c r="F50">
+        <v>1181.8</v>
+      </c>
+      <c r="G50">
+        <v>27552.400000000001</v>
+      </c>
+      <c r="H50">
+        <v>33330</v>
+      </c>
+      <c r="I50">
+        <v>141.4</v>
+      </c>
+      <c r="J50">
+        <v>15.8</v>
+      </c>
+      <c r="K50">
+        <v>13.5</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>25438.5</v>
+      </c>
+      <c r="O50">
+        <v>26934.7</v>
+      </c>
+      <c r="P50">
+        <v>29.3</v>
+      </c>
+      <c r="Q50">
+        <v>273.5</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>6395.3</v>
+      </c>
+      <c r="U50">
+        <v>1390.8</v>
+      </c>
+      <c r="V50">
+        <v>448.5</v>
+      </c>
+      <c r="W50">
+        <v>-192.2</v>
+      </c>
+      <c r="X50">
+        <v>2680.3</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-160.19999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>390.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>482.7</v>
+      </c>
+      <c r="D51">
+        <v>3109.3</v>
+      </c>
+      <c r="E51">
+        <v>1723.6</v>
+      </c>
+      <c r="F51">
+        <v>1429.7</v>
+      </c>
+      <c r="G51">
+        <v>34433.199999999997</v>
+      </c>
+      <c r="H51">
+        <v>40166.300000000003</v>
+      </c>
+      <c r="I51">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="J51">
+        <v>15.3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>32118.5</v>
+      </c>
+      <c r="O51">
+        <v>33605.199999999997</v>
+      </c>
+      <c r="P51">
+        <v>15.3</v>
+      </c>
+      <c r="Q51">
+        <v>256.8</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6561.1</v>
+      </c>
+      <c r="U51">
+        <v>1647.7</v>
+      </c>
+      <c r="V51">
+        <v>618.29999999999995</v>
+      </c>
+      <c r="W51">
+        <v>-210.4</v>
+      </c>
+      <c r="X51">
+        <v>6426.7</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-652.9</v>
+      </c>
+      <c r="AA51">
+        <v>482.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>227</v>
+      </c>
+      <c r="D52">
+        <v>2802.8</v>
+      </c>
+      <c r="E52">
+        <v>1595.3</v>
+      </c>
+      <c r="F52">
+        <v>1176.5999999999999</v>
+      </c>
+      <c r="G52">
+        <v>26214.5</v>
+      </c>
+      <c r="H52">
+        <v>32268.1</v>
+      </c>
+      <c r="I52">
+        <v>156.5</v>
+      </c>
+      <c r="J52">
+        <v>14.7</v>
+      </c>
+      <c r="K52">
+        <v>245.9</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>24732.799999999999</v>
+      </c>
+      <c r="O52">
+        <v>26078.2</v>
+      </c>
+      <c r="P52">
+        <v>260.60000000000002</v>
+      </c>
+      <c r="Q52">
+        <v>51.4</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>60000</v>
+      </c>
+      <c r="T52">
+        <v>6189.9</v>
+      </c>
+      <c r="U52">
+        <v>1698.4</v>
+      </c>
+      <c r="V52">
+        <v>575.5</v>
+      </c>
+      <c r="W52">
+        <v>-210.8</v>
+      </c>
+      <c r="X52">
+        <v>-7862.7</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-287.89999999999998</v>
+      </c>
+      <c r="AA52">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>328.6</v>
+      </c>
+      <c r="D53">
+        <v>2362</v>
+      </c>
+      <c r="E53">
+        <v>1585.8</v>
+      </c>
+      <c r="F53">
+        <v>970</v>
+      </c>
+      <c r="G53">
+        <v>21035.8</v>
+      </c>
+      <c r="H53">
+        <v>29481.3</v>
+      </c>
+      <c r="I53">
+        <v>148.9</v>
+      </c>
+      <c r="J53">
+        <v>14.2</v>
+      </c>
+      <c r="K53">
+        <v>2817.9</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-0.6</v>
+      </c>
+      <c r="N53">
+        <v>21899.4</v>
+      </c>
+      <c r="O53">
+        <v>23288.5</v>
+      </c>
+      <c r="P53">
+        <v>2832.1</v>
+      </c>
+      <c r="Q53">
+        <v>-550.1</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6192.8</v>
+      </c>
+      <c r="U53">
+        <v>1149</v>
+      </c>
+      <c r="V53">
+        <v>81.3</v>
+      </c>
+      <c r="W53">
+        <v>-210.6</v>
+      </c>
+      <c r="X53">
+        <v>-3137.5</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>202.5</v>
+      </c>
+      <c r="AA53">
+        <v>328.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>377</v>
+      </c>
+      <c r="D54">
+        <v>2493.6999999999998</v>
+      </c>
+      <c r="E54">
+        <v>1730.4</v>
+      </c>
+      <c r="F54">
+        <v>1065.4000000000001</v>
+      </c>
+      <c r="G54">
+        <v>32301.1</v>
+      </c>
+      <c r="H54">
+        <v>38321.800000000003</v>
+      </c>
+      <c r="I54">
+        <v>140.6</v>
+      </c>
+      <c r="J54">
+        <v>12.6</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>30645</v>
+      </c>
+      <c r="O54">
+        <v>32063.3</v>
+      </c>
+      <c r="P54">
+        <v>12.6</v>
+      </c>
+      <c r="Q54">
+        <v>118.1</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>6258.5</v>
+      </c>
+      <c r="U54">
+        <v>1266.4000000000001</v>
+      </c>
+      <c r="V54">
+        <v>391.7</v>
+      </c>
+      <c r="W54">
+        <v>-210.2</v>
+      </c>
+      <c r="X54">
+        <v>8454.6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-388.3</v>
+      </c>
+      <c r="AA54">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>521.5</v>
+      </c>
+      <c r="D55">
+        <v>2825.1</v>
+      </c>
+      <c r="E55">
+        <v>1835.2</v>
+      </c>
+      <c r="F55">
+        <v>1289.7</v>
+      </c>
+      <c r="G55">
+        <v>30532.6</v>
+      </c>
+      <c r="H55">
+        <v>36596.5</v>
+      </c>
+      <c r="I55">
+        <v>145.6</v>
+      </c>
+      <c r="J55">
+        <v>12.1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>28578.2</v>
+      </c>
+      <c r="O55">
+        <v>29980.400000000001</v>
+      </c>
+      <c r="P55">
+        <v>12.1</v>
+      </c>
+      <c r="Q55">
+        <v>403.9</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6616.1</v>
+      </c>
+      <c r="U55">
+        <v>1671</v>
+      </c>
+      <c r="V55">
+        <v>743.9</v>
+      </c>
+      <c r="W55">
+        <v>-231.2</v>
+      </c>
+      <c r="X55">
+        <v>-2381.3000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-426.6</v>
+      </c>
+      <c r="AA55">
+        <v>521.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1498.8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>27493</v>
+      </c>
+      <c r="H56">
+        <v>32059.8</v>
+      </c>
+      <c r="I56">
+        <v>152.1</v>
+      </c>
+      <c r="J56">
+        <v>11.5</v>
+      </c>
+      <c r="K56">
+        <v>2173</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>24167.599999999999</v>
+      </c>
+      <c r="O56">
+        <v>25389.599999999999</v>
+      </c>
+      <c r="P56">
+        <v>2184.5</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>61000</v>
+      </c>
+      <c r="T56">
+        <v>6670.2</v>
+      </c>
+      <c r="U56">
+        <v>1400.2</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>295.2</v>
+      </c>
+      <c r="D57">
+        <v>2566.1</v>
+      </c>
+      <c r="E57">
+        <v>1390.3</v>
+      </c>
+      <c r="F57">
+        <v>1059.3</v>
+      </c>
+      <c r="G57">
+        <v>25793.4</v>
+      </c>
+      <c r="H57">
+        <v>30208.1</v>
+      </c>
+      <c r="I57">
+        <v>146.9</v>
+      </c>
+      <c r="J57">
+        <v>10.9</v>
+      </c>
+      <c r="K57">
+        <v>1937</v>
+      </c>
+      <c r="L57">
+        <v>-236</v>
+      </c>
+      <c r="M57">
+        <v>-0.6</v>
+      </c>
+      <c r="N57">
+        <v>23159.3</v>
+      </c>
+      <c r="O57">
+        <v>24380.799999999999</v>
+      </c>
+      <c r="P57">
+        <v>1947.9</v>
+      </c>
+      <c r="Q57">
+        <v>192.1</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5827.3</v>
+      </c>
+      <c r="U57">
+        <v>2175.6999999999998</v>
+      </c>
+      <c r="V57">
+        <v>378.2</v>
+      </c>
+      <c r="W57">
+        <v>-229.8</v>
+      </c>
+      <c r="X57">
+        <v>-418</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-299</v>
+      </c>
+      <c r="AA57">
+        <v>295.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>331.5</v>
+      </c>
+      <c r="D58">
+        <v>2653.6</v>
+      </c>
+      <c r="E58">
+        <v>1595.6</v>
+      </c>
+      <c r="F58">
+        <v>1122.0999999999999</v>
+      </c>
+      <c r="G58">
+        <v>39116</v>
+      </c>
+      <c r="H58">
+        <v>43503.1</v>
+      </c>
+      <c r="I58">
+        <v>136.4</v>
+      </c>
+      <c r="J58">
+        <v>10.3</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>36770.199999999997</v>
+      </c>
+      <c r="O58">
+        <v>38010.9</v>
+      </c>
+      <c r="P58">
+        <v>10.3</v>
+      </c>
+      <c r="Q58">
+        <v>-324.89999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5492.2</v>
+      </c>
+      <c r="U58">
+        <v>1850.8</v>
+      </c>
+      <c r="V58">
+        <v>228.9</v>
+      </c>
+      <c r="W58">
+        <v>-231.5</v>
+      </c>
+      <c r="X58">
+        <v>13120.6</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-179.7</v>
+      </c>
+      <c r="AA58">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>489.6</v>
+      </c>
+      <c r="D59">
+        <v>3024.3</v>
+      </c>
+      <c r="E59">
+        <v>1580.7</v>
+      </c>
+      <c r="F59">
+        <v>1392.2</v>
+      </c>
+      <c r="G59">
+        <v>32792.800000000003</v>
+      </c>
+      <c r="H59">
+        <v>37107.300000000003</v>
+      </c>
+      <c r="I59">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="J59">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>30714.7</v>
+      </c>
+      <c r="O59">
+        <v>31929.200000000001</v>
+      </c>
+      <c r="P59">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q59">
+        <v>-42.2</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5178.1000000000004</v>
+      </c>
+      <c r="U59">
+        <v>1808.6</v>
+      </c>
+      <c r="V59">
+        <v>857.1</v>
+      </c>
+      <c r="W59">
+        <v>-234.9</v>
+      </c>
+      <c r="X59">
+        <v>-6752.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-270</v>
+      </c>
+      <c r="AA59">
+        <v>489.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>336.2</v>
+      </c>
+      <c r="D60">
+        <v>2694.5</v>
+      </c>
+      <c r="E60">
+        <v>1546.9</v>
+      </c>
+      <c r="F60">
+        <v>1144.3</v>
+      </c>
+      <c r="G60">
+        <v>28809.200000000001</v>
+      </c>
+      <c r="H60">
+        <v>33110.5</v>
+      </c>
+      <c r="I60">
+        <v>194.5</v>
+      </c>
+      <c r="J60">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>27113.7</v>
+      </c>
+      <c r="O60">
+        <v>28302</v>
+      </c>
+      <c r="P60">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q60">
+        <v>-169.3</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>55000</v>
+      </c>
+      <c r="T60">
+        <v>4808.5</v>
+      </c>
+      <c r="U60">
+        <v>1639.3</v>
+      </c>
+      <c r="V60">
+        <v>441.4</v>
+      </c>
+      <c r="W60">
+        <v>-231.4</v>
+      </c>
+      <c r="X60">
+        <v>-4333.1000000000004</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-457.9</v>
+      </c>
+      <c r="AA60">
+        <v>336.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>336.6</v>
+      </c>
+      <c r="D61">
+        <v>2714</v>
+      </c>
+      <c r="E61">
+        <v>1565.2</v>
+      </c>
+      <c r="F61">
+        <v>1118.0999999999999</v>
+      </c>
+      <c r="G61">
+        <v>30176.1</v>
+      </c>
+      <c r="H61">
+        <v>34380.300000000003</v>
+      </c>
+      <c r="I61">
+        <v>146.5</v>
+      </c>
+      <c r="J61">
+        <v>1995.2</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-0.6</v>
+      </c>
+      <c r="N61">
+        <v>26587.3</v>
+      </c>
+      <c r="O61">
+        <v>29750.1</v>
+      </c>
+      <c r="P61">
+        <v>1995.2</v>
+      </c>
+      <c r="Q61">
+        <v>1545.4</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4630.2</v>
+      </c>
+      <c r="U61">
+        <v>3184.7</v>
+      </c>
+      <c r="V61">
+        <v>109.1</v>
+      </c>
+      <c r="W61">
+        <v>-229</v>
+      </c>
+      <c r="X61">
+        <v>1128.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>395.5</v>
+      </c>
+      <c r="AA61">
+        <v>336.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>341.4</v>
+      </c>
+      <c r="D62">
+        <v>2807</v>
+      </c>
+      <c r="E62">
+        <v>1634.2</v>
+      </c>
+      <c r="F62">
+        <v>1178</v>
+      </c>
+      <c r="G62">
+        <v>35659.199999999997</v>
+      </c>
+      <c r="H62">
+        <v>39899.5</v>
+      </c>
+      <c r="I62">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="J62">
+        <v>1994.8</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>32468.1</v>
+      </c>
+      <c r="O62">
+        <v>35693.300000000003</v>
+      </c>
+      <c r="P62">
+        <v>1994.8</v>
+      </c>
+      <c r="Q62">
+        <v>-389.8</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4206.2</v>
+      </c>
+      <c r="U62">
+        <v>2794.9</v>
+      </c>
+      <c r="V62">
+        <v>406.3</v>
+      </c>
+      <c r="W62">
+        <v>-229.8</v>
+      </c>
+      <c r="X62">
+        <v>5398.6</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-170.8</v>
+      </c>
+      <c r="AA62">
+        <v>341.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>532.5</v>
+      </c>
+      <c r="D63">
+        <v>3248.6</v>
+      </c>
+      <c r="E63">
+        <v>2074.4</v>
+      </c>
+      <c r="F63">
+        <v>1489.7</v>
+      </c>
+      <c r="G63">
+        <v>46819</v>
+      </c>
+      <c r="H63">
+        <v>51125.599999999999</v>
+      </c>
+      <c r="I63">
+        <v>158.4</v>
+      </c>
+      <c r="J63">
+        <v>2007.7</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>43250.400000000001</v>
+      </c>
+      <c r="O63">
+        <v>46622.400000000001</v>
+      </c>
+      <c r="P63">
+        <v>2007.7</v>
+      </c>
+      <c r="Q63">
+        <v>146.5</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4503.2</v>
+      </c>
+      <c r="U63">
+        <v>2941.4</v>
+      </c>
+      <c r="V63">
+        <v>719</v>
+      </c>
+      <c r="W63">
+        <v>-242.4</v>
+      </c>
+      <c r="X63">
+        <v>9805.7999999999993</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-404.4</v>
+      </c>
+      <c r="AA63">
+        <v>532.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>282</v>
+      </c>
+      <c r="D64">
+        <v>2898.3</v>
+      </c>
+      <c r="E64">
+        <v>1742.8</v>
+      </c>
+      <c r="F64">
+        <v>1253.5</v>
+      </c>
+      <c r="G64">
+        <v>39500.400000000001</v>
+      </c>
+      <c r="H64">
+        <v>43670</v>
+      </c>
+      <c r="I64">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="J64">
+        <v>2007.7</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>35847.4</v>
+      </c>
+      <c r="O64">
+        <v>39188.400000000001</v>
+      </c>
+      <c r="P64">
+        <v>2007.7</v>
+      </c>
+      <c r="Q64">
+        <v>249.7</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>57000</v>
+      </c>
+      <c r="T64">
+        <v>4481.6000000000004</v>
+      </c>
+      <c r="U64">
+        <v>3191.1</v>
+      </c>
+      <c r="V64">
+        <v>662.9</v>
+      </c>
+      <c r="W64">
+        <v>-242.4</v>
+      </c>
+      <c r="X64">
+        <v>-7579.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-481.2</v>
+      </c>
+      <c r="AA64">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>368.7</v>
+      </c>
+      <c r="D65">
+        <v>2916.9</v>
+      </c>
+      <c r="E65">
+        <v>1620.6</v>
+      </c>
+      <c r="F65">
+        <v>1230.5</v>
+      </c>
+      <c r="G65">
+        <v>30124.2</v>
+      </c>
+      <c r="H65">
+        <v>34337.4</v>
+      </c>
+      <c r="I65">
+        <v>117.8</v>
+      </c>
+      <c r="J65">
+        <v>2007.7</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-0.5</v>
+      </c>
+      <c r="N65">
+        <v>26719.3</v>
+      </c>
+      <c r="O65">
+        <v>30087.3</v>
+      </c>
+      <c r="P65">
+        <v>2007.7</v>
+      </c>
+      <c r="Q65">
+        <v>-9597</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4250.1000000000004</v>
+      </c>
+      <c r="U65">
+        <v>2776.6</v>
+      </c>
+      <c r="V65">
+        <v>329.8</v>
+      </c>
+      <c r="W65">
+        <v>-241.8</v>
+      </c>
+      <c r="X65">
+        <v>-9513.6</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-271</v>
+      </c>
+      <c r="AA65">
+        <v>368.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>510.9</v>
+      </c>
+      <c r="D66">
+        <v>2987.3</v>
+      </c>
+      <c r="E66">
+        <v>1839.5</v>
+      </c>
+      <c r="F66">
+        <v>1274.4000000000001</v>
+      </c>
+      <c r="G66">
+        <v>35808.1</v>
+      </c>
+      <c r="H66">
+        <v>39999.4</v>
+      </c>
+      <c r="I66">
+        <v>137.4</v>
+      </c>
+      <c r="J66">
+        <v>2002.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>32956.300000000003</v>
+      </c>
+      <c r="O66">
+        <v>36184.300000000003</v>
+      </c>
+      <c r="P66">
+        <v>2002.5</v>
+      </c>
+      <c r="Q66">
+        <v>5859.9</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3815.1</v>
+      </c>
+      <c r="U66">
+        <v>2705.2</v>
+      </c>
+      <c r="V66">
+        <v>511.3</v>
+      </c>
+      <c r="W66">
+        <v>-240.5</v>
+      </c>
+      <c r="X66">
+        <v>5484.3</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-210.5</v>
+      </c>
+      <c r="AA66">
+        <v>510.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>588</v>
+      </c>
+      <c r="D67">
+        <v>3410.8</v>
+      </c>
+      <c r="E67">
+        <v>1811.5</v>
+      </c>
+      <c r="F67">
+        <v>1556</v>
+      </c>
+      <c r="G67">
+        <v>39514.400000000001</v>
+      </c>
+      <c r="H67">
+        <v>43855.9</v>
+      </c>
+      <c r="I67">
+        <v>126.5</v>
+      </c>
+      <c r="J67">
+        <v>2002.5</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>36418.5</v>
+      </c>
+      <c r="O67">
+        <v>39752.800000000003</v>
+      </c>
+      <c r="P67">
+        <v>2010.3</v>
+      </c>
+      <c r="Q67">
+        <v>3383.5</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4103.1000000000004</v>
+      </c>
+      <c r="U67">
+        <v>2995.5</v>
+      </c>
+      <c r="V67">
+        <v>827.6</v>
+      </c>
+      <c r="W67">
+        <v>-257.10000000000002</v>
+      </c>
+      <c r="X67">
+        <v>3042.8</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-283.89999999999998</v>
+      </c>
+      <c r="AA67">
+        <v>587.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>265.8</v>
+      </c>
+      <c r="D68">
+        <v>3064.9</v>
+      </c>
+      <c r="E68">
+        <v>1703.6</v>
+      </c>
+      <c r="F68">
+        <v>1275.3</v>
+      </c>
+      <c r="G68">
+        <v>32658.7</v>
+      </c>
+      <c r="H68">
+        <v>37180</v>
+      </c>
+      <c r="I68">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="J68">
+        <v>2002.4</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>29815.9</v>
+      </c>
+      <c r="O68">
+        <v>33203</v>
+      </c>
+      <c r="P68">
+        <v>2002.4</v>
+      </c>
+      <c r="Q68">
+        <v>-6923.4</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>58000</v>
+      </c>
+      <c r="T68">
+        <v>3977</v>
+      </c>
+      <c r="U68">
+        <v>2780.4</v>
+      </c>
+      <c r="V68">
+        <v>457.2</v>
+      </c>
+      <c r="W68">
+        <v>-255.8</v>
+      </c>
+      <c r="X68">
+        <v>-7295.2</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-23.8</v>
+      </c>
+      <c r="AA68">
+        <v>265.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>412.6</v>
+      </c>
+      <c r="D69">
+        <v>3077.2</v>
+      </c>
+      <c r="E69">
+        <v>1788.7</v>
+      </c>
+      <c r="F69">
+        <v>1288.3</v>
+      </c>
+      <c r="G69">
+        <v>31002.6</v>
+      </c>
+      <c r="H69">
+        <v>35661.1</v>
+      </c>
+      <c r="I69">
+        <v>112.6</v>
+      </c>
+      <c r="J69">
+        <v>2002.1</v>
+      </c>
+      <c r="K69">
+        <v>129.4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-0.9</v>
+      </c>
+      <c r="N69">
+        <v>28286.6</v>
+      </c>
+      <c r="O69">
+        <v>31707.7</v>
+      </c>
+      <c r="P69">
+        <v>2131.5</v>
+      </c>
+      <c r="Q69">
+        <v>-2098.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3953.4</v>
+      </c>
+      <c r="U69">
+        <v>2363.6</v>
+      </c>
+      <c r="V69">
+        <v>244.7</v>
+      </c>
+      <c r="W69">
+        <v>-253.7</v>
+      </c>
+      <c r="X69">
+        <v>-2064.6999999999998</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-149.6</v>
+      </c>
+      <c r="AA69">
+        <v>412.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>670.4</v>
+      </c>
+      <c r="D70">
+        <v>3238.3</v>
+      </c>
+      <c r="E70">
+        <v>2045.5</v>
+      </c>
+      <c r="F70">
+        <v>1369.7</v>
+      </c>
+      <c r="G70">
+        <v>39350</v>
+      </c>
+      <c r="H70">
+        <v>44545.5</v>
+      </c>
+      <c r="I70">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="J70">
+        <v>2002.4</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>37250.9</v>
+      </c>
+      <c r="O70">
+        <v>40614.300000000003</v>
+      </c>
+      <c r="P70">
+        <v>2002.4</v>
+      </c>
+      <c r="Q70">
+        <v>7776.6</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3931.2</v>
+      </c>
+      <c r="U70">
+        <v>1773.4</v>
+      </c>
+      <c r="V70">
+        <v>430.4</v>
+      </c>
+      <c r="W70">
+        <v>-253</v>
+      </c>
+      <c r="X70">
+        <v>8345</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-438.6</v>
+      </c>
+      <c r="AA70">
+        <v>670.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>661</v>
+      </c>
+      <c r="D71">
+        <v>3696</v>
+      </c>
+      <c r="E71">
+        <v>2043.4</v>
+      </c>
+      <c r="F71">
+        <v>1686.9</v>
+      </c>
+      <c r="G71">
+        <v>38714</v>
+      </c>
+      <c r="H71">
+        <v>44065.5</v>
+      </c>
+      <c r="I71">
+        <v>105.7</v>
+      </c>
+      <c r="J71">
+        <v>2002.4</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>36741.199999999997</v>
+      </c>
+      <c r="O71">
+        <v>40036.300000000003</v>
+      </c>
+      <c r="P71">
+        <v>2002.4</v>
+      </c>
+      <c r="Q71">
+        <v>-414.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4029.2</v>
+      </c>
+      <c r="U71">
+        <v>2293.6</v>
+      </c>
+      <c r="V71">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="W71">
+        <v>-278.39999999999998</v>
+      </c>
+      <c r="X71">
+        <v>-922.1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-402</v>
+      </c>
+      <c r="AA71">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>140.9</v>
+      </c>
+      <c r="D72">
+        <v>3316.2</v>
+      </c>
+      <c r="E72">
+        <v>1984.2</v>
+      </c>
+      <c r="F72">
+        <v>1446.3</v>
+      </c>
+      <c r="G72">
+        <v>31823.3</v>
+      </c>
+      <c r="H72">
+        <v>38849.1</v>
+      </c>
+      <c r="I72">
+        <v>135.4</v>
+      </c>
+      <c r="J72">
+        <v>2002.4</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>30412.7</v>
+      </c>
+      <c r="O72">
+        <v>34113.199999999997</v>
+      </c>
+      <c r="P72">
+        <v>2002.4</v>
+      </c>
+      <c r="Q72">
+        <v>-6902.8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>57000</v>
+      </c>
+      <c r="T72">
+        <v>4735.8999999999996</v>
+      </c>
+      <c r="U72">
+        <v>2170</v>
+      </c>
+      <c r="V72">
+        <v>705.2</v>
+      </c>
+      <c r="W72">
+        <v>-278.60000000000002</v>
+      </c>
+      <c r="X72">
+        <v>-7014.1</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-431.6</v>
+      </c>
+      <c r="AA72">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>505.4</v>
+      </c>
+      <c r="D73">
+        <v>3310.3</v>
+      </c>
+      <c r="E73">
+        <v>2216.4</v>
+      </c>
+      <c r="F73">
+        <v>1455.3</v>
+      </c>
+      <c r="G73">
+        <v>29955.9</v>
+      </c>
+      <c r="H73">
+        <v>37416.699999999997</v>
+      </c>
+      <c r="I73">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="J73">
+        <v>2002.4</v>
+      </c>
+      <c r="K73">
+        <v>453</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-0.5</v>
+      </c>
+      <c r="N73">
+        <v>29037.3</v>
+      </c>
+      <c r="O73">
+        <v>32737.9</v>
+      </c>
+      <c r="P73">
+        <v>2455.4</v>
+      </c>
+      <c r="Q73">
+        <v>-2133.8000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4678.8</v>
+      </c>
+      <c r="U73">
+        <v>1490.3</v>
+      </c>
+      <c r="V73">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="W73">
+        <v>-302.60000000000002</v>
+      </c>
+      <c r="X73">
+        <v>-1817.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-216</v>
+      </c>
+      <c r="AA73">
+        <v>505.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>558.20000000000005</v>
+      </c>
+      <c r="D74">
+        <v>3492.4</v>
+      </c>
+      <c r="E74">
+        <v>2638.1</v>
+      </c>
+      <c r="F74">
+        <v>1563.9</v>
+      </c>
+      <c r="G74">
+        <v>31682.6</v>
+      </c>
+      <c r="H74">
+        <v>38806.300000000003</v>
+      </c>
+      <c r="I74">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="J74">
+        <v>2002.3</v>
+      </c>
+      <c r="K74">
+        <v>1206</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>30296.9</v>
+      </c>
+      <c r="O74">
+        <v>34042.400000000001</v>
+      </c>
+      <c r="P74">
+        <v>3208.3</v>
+      </c>
+      <c r="Q74">
+        <v>1075.7</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>4763.8999999999996</v>
+      </c>
+      <c r="U74">
+        <v>2785.6</v>
+      </c>
+      <c r="V74">
+        <v>782.3</v>
+      </c>
+      <c r="W74">
+        <v>-302.39999999999998</v>
+      </c>
+      <c r="X74">
+        <v>329.4</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AA74">
+        <v>558.20000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>753.8</v>
+      </c>
+      <c r="D75">
+        <v>3828.2</v>
+      </c>
+      <c r="E75">
+        <v>2485.1999999999998</v>
+      </c>
+      <c r="F75">
+        <v>1812.8</v>
+      </c>
+      <c r="G75">
+        <v>40924</v>
+      </c>
+      <c r="H75">
+        <v>48196.3</v>
+      </c>
+      <c r="I75">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="J75">
+        <v>2002.3</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>39166</v>
+      </c>
+      <c r="O75">
+        <v>42950.1</v>
+      </c>
+      <c r="P75">
+        <v>2002.3</v>
+      </c>
+      <c r="Q75">
+        <v>8727.5</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5246.2</v>
+      </c>
+      <c r="U75">
+        <v>1826.2</v>
+      </c>
+      <c r="V75">
+        <v>1024.5</v>
+      </c>
+      <c r="W75">
+        <v>-344.6</v>
+      </c>
+      <c r="X75">
+        <v>8433.7000000000007</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-497.8</v>
+      </c>
+      <c r="AA75">
+        <v>753.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>475.4</v>
+      </c>
+      <c r="D76">
+        <v>3479.3</v>
+      </c>
+      <c r="E76">
+        <v>2439.3000000000002</v>
+      </c>
+      <c r="F76">
+        <v>1561.1</v>
+      </c>
+      <c r="G76">
+        <v>34342.300000000003</v>
+      </c>
+      <c r="H76">
+        <v>41887.699999999997</v>
+      </c>
+      <c r="I76">
+        <v>125.5</v>
+      </c>
+      <c r="J76">
+        <v>2002.2</v>
+      </c>
+      <c r="K76">
+        <v>262</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>32627.7</v>
+      </c>
+      <c r="O76">
+        <v>36487.800000000003</v>
+      </c>
+      <c r="P76">
+        <v>2264.1999999999998</v>
+      </c>
+      <c r="Q76">
+        <v>-7415.3</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>58000</v>
+      </c>
+      <c r="T76">
+        <v>5399.9</v>
+      </c>
+      <c r="U76">
+        <v>1949.2</v>
+      </c>
+      <c r="V76">
+        <v>732.3</v>
+      </c>
+      <c r="W76">
+        <v>-343.4</v>
+      </c>
+      <c r="X76">
+        <v>-7153.1</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-878.4</v>
+      </c>
+      <c r="AA76">
+        <v>475.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>582.4</v>
+      </c>
+      <c r="D77">
+        <v>3495.7</v>
+      </c>
+      <c r="E77">
+        <v>2490.4</v>
+      </c>
+      <c r="F77">
+        <v>1539.8</v>
+      </c>
+      <c r="G77">
+        <v>29508.5</v>
+      </c>
+      <c r="H77">
+        <v>37714.699999999997</v>
+      </c>
+      <c r="I77">
+        <v>108.8</v>
+      </c>
+      <c r="J77">
+        <v>1003.4</v>
+      </c>
+      <c r="K77">
+        <v>3965.3</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-0.5</v>
+      </c>
+      <c r="N77">
+        <v>29200.9</v>
+      </c>
+      <c r="O77">
+        <v>32354</v>
+      </c>
+      <c r="P77">
+        <v>6428.7</v>
+      </c>
+      <c r="Q77">
+        <v>-4524</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5360.7</v>
+      </c>
+      <c r="U77">
+        <v>1403.9</v>
+      </c>
+      <c r="V77">
+        <v>432.8</v>
+      </c>
+      <c r="W77">
+        <v>-343.3</v>
+      </c>
+      <c r="X77">
+        <v>-5045.8999999999996</v>
+      </c>
+      <c r="Y77">
+        <v>355.4</v>
+      </c>
+      <c r="Z77">
+        <v>243.8</v>
+      </c>
+      <c r="AA77">
+        <v>582.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>651.6</v>
+      </c>
+      <c r="D78">
+        <v>3669.5</v>
+      </c>
+      <c r="E78">
+        <v>2587.9</v>
+      </c>
+      <c r="F78">
+        <v>1664.8</v>
+      </c>
+      <c r="G78">
+        <v>41365</v>
+      </c>
+      <c r="H78">
+        <v>49059.4</v>
+      </c>
+      <c r="I78">
+        <v>132.9</v>
+      </c>
+      <c r="J78">
+        <v>1003</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>40522.400000000001</v>
+      </c>
+      <c r="O78">
+        <v>43695</v>
+      </c>
+      <c r="P78">
+        <v>2469.3000000000002</v>
+      </c>
+      <c r="Q78">
+        <v>11042.9</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>5364.4</v>
+      </c>
+      <c r="U78">
+        <v>1500.4</v>
+      </c>
+      <c r="V78">
+        <v>698.1</v>
+      </c>
+      <c r="W78">
+        <v>-342.7</v>
+      </c>
+      <c r="X78">
+        <v>10571</v>
+      </c>
+      <c r="Y78">
+        <v>360.2</v>
+      </c>
+      <c r="Z78">
+        <v>-123.9</v>
+      </c>
+      <c r="AA78">
+        <v>651.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>820.9</v>
+      </c>
+      <c r="D79">
+        <v>4047.8</v>
+      </c>
+      <c r="E79">
+        <v>2620.6</v>
+      </c>
+      <c r="F79">
+        <v>1901.6</v>
+      </c>
+      <c r="G79">
+        <v>35708.699999999997</v>
+      </c>
+      <c r="H79">
+        <v>43383.4</v>
+      </c>
+      <c r="I79">
+        <v>115.5</v>
+      </c>
+      <c r="J79">
+        <v>1002.8</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>34672.800000000003</v>
+      </c>
+      <c r="O79">
+        <v>37892.699999999997</v>
+      </c>
+      <c r="P79">
+        <v>2464</v>
+      </c>
+      <c r="Q79">
+        <v>-4796.1000000000004</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5490.7</v>
+      </c>
+      <c r="U79">
+        <v>1705</v>
+      </c>
+      <c r="V79">
+        <v>1118.7</v>
+      </c>
+      <c r="W79">
+        <v>-392.9</v>
+      </c>
+      <c r="X79">
+        <v>-6489.1</v>
+      </c>
+      <c r="Y79">
+        <v>361.2</v>
+      </c>
+      <c r="Z79">
+        <v>735.4</v>
+      </c>
+      <c r="AA79">
+        <v>820.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>411.6</v>
+      </c>
+      <c r="D80">
+        <v>3376.8</v>
+      </c>
+      <c r="E80">
+        <v>2441.3000000000002</v>
+      </c>
+      <c r="F80">
+        <v>1405.4</v>
+      </c>
+      <c r="G80">
+        <v>31564.1</v>
+      </c>
+      <c r="H80">
+        <v>39165.5</v>
+      </c>
+      <c r="I80">
+        <v>102</v>
+      </c>
+      <c r="J80">
+        <v>1002.8</v>
+      </c>
+      <c r="K80">
+        <v>13.6</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>30126.6</v>
+      </c>
+      <c r="O80">
+        <v>33413.300000000003</v>
+      </c>
+      <c r="P80">
+        <v>2458.1</v>
+      </c>
+      <c r="Q80">
+        <v>-1465.4</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>58000</v>
+      </c>
+      <c r="T80">
+        <v>5752.2</v>
+      </c>
+      <c r="U80">
+        <v>1908.5</v>
+      </c>
+      <c r="V80">
+        <v>776.6</v>
+      </c>
+      <c r="W80">
+        <v>-391.6</v>
+      </c>
+      <c r="X80">
+        <v>-4926.6000000000004</v>
+      </c>
+      <c r="Y80">
+        <v>344.4</v>
+      </c>
+      <c r="Z80">
+        <v>2888</v>
+      </c>
+      <c r="AA80">
+        <v>411.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>602.1</v>
+      </c>
+      <c r="D81">
+        <v>3470.7</v>
+      </c>
+      <c r="E81">
+        <v>2489.1</v>
+      </c>
+      <c r="F81">
+        <v>1539.9</v>
+      </c>
+      <c r="G81">
+        <v>34815.4</v>
+      </c>
+      <c r="H81">
+        <v>42390.1</v>
+      </c>
+      <c r="I81">
+        <v>111.2</v>
+      </c>
+      <c r="J81">
+        <v>1993.9</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>-13.6</v>
+      </c>
+      <c r="M81">
+        <v>-1000.6</v>
+      </c>
+      <c r="N81">
+        <v>32329.599999999999</v>
+      </c>
+      <c r="O81">
+        <v>36581.199999999997</v>
+      </c>
+      <c r="P81">
+        <v>2420.8000000000002</v>
+      </c>
+      <c r="Q81">
+        <v>3308.1</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5808.9</v>
+      </c>
+      <c r="U81">
+        <v>1613.1</v>
+      </c>
+      <c r="V81">
+        <v>481.9</v>
+      </c>
+      <c r="W81">
+        <v>-391</v>
+      </c>
+      <c r="X81">
+        <v>2524.1</v>
+      </c>
+      <c r="Y81">
+        <v>330.4</v>
+      </c>
+      <c r="Z81">
+        <v>383.9</v>
+      </c>
+      <c r="AA81">
+        <v>602.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>647.5</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3695.7</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2509.8000000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1673.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>41662.300000000003</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>49325.9</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>113.9</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1994.1</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>39176.5</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>43425.9</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2450.3000000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>5766.8</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>5900</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1602.2</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>706.4</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-390.7</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>6227.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>357.4</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-1106.2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>647.5</v>
       </c>
     </row>
